--- a/Reports/Seasonal_Habitat_Survey_Data_2021_Final.xlsx
+++ b/Reports/Seasonal_Habitat_Survey_Data_2021_Final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maddi\Desktop\Box Sync\Thesis\Chinook Seasonal Floodplain Habitat\GitHub\seasonal-floodplains\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B036CF-C535-415F-813D-9274BBE34E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E0466F-2968-43B4-89CD-6691A28793FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="630" xr2:uid="{AFACC005-F41F-40AF-B566-BE9E226420DA}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4442" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4442" uniqueCount="241">
   <si>
     <t>Site Code</t>
   </si>
@@ -484,9 +484,6 @@
     <t>ML, MH, JB</t>
   </si>
   <si>
-    <t>DO measurements from WPT 229 onward may be impacted by sediment</t>
-  </si>
-  <si>
     <t>PS</t>
   </si>
   <si>
@@ -694,9 +691,6 @@
     <t>Sunny</t>
   </si>
   <si>
-    <t>Visibility 0.5 m.  Still steep impassable beaver dam at timelapse camera.</t>
-  </si>
-  <si>
     <t>CA, MH</t>
   </si>
   <si>
@@ -773,6 +767,9 @@
   </si>
   <si>
     <t>Visibility poor (&lt;1 m)</t>
+  </si>
+  <si>
+    <t>Visibility 0.5 m</t>
   </si>
 </sst>
 </file>
@@ -1154,8 +1151,8 @@
   <dimension ref="A1:U505"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A243" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U240" sqref="U240:U258"/>
+      <pane ySplit="1" topLeftCell="A342" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U389" sqref="U389"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1187,22 +1184,22 @@
         <v>3</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>17</v>
@@ -1220,7 +1217,7 @@
         <v>8</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>14</v>
@@ -1255,7 +1252,7 @@
         <v>0.88541666666666663</v>
       </c>
       <c r="F2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G2">
         <v>184</v>
@@ -1317,7 +1314,7 @@
         <v>0.88541666666666663</v>
       </c>
       <c r="F3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G3">
         <v>184</v>
@@ -1379,7 +1376,7 @@
         <v>0.88541666666666663</v>
       </c>
       <c r="F4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G4">
         <v>184</v>
@@ -1441,7 +1438,7 @@
         <v>0.88541666666666663</v>
       </c>
       <c r="F5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G5">
         <v>185</v>
@@ -1503,7 +1500,7 @@
         <v>0.88541666666666663</v>
       </c>
       <c r="F6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G6">
         <v>185</v>
@@ -1565,7 +1562,7 @@
         <v>0.88541666666666663</v>
       </c>
       <c r="F7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G7">
         <v>185</v>
@@ -1627,7 +1624,7 @@
         <v>0.88541666666666663</v>
       </c>
       <c r="F8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G8">
         <v>186</v>
@@ -1689,7 +1686,7 @@
         <v>0.88541666666666663</v>
       </c>
       <c r="F9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G9">
         <v>186</v>
@@ -1751,7 +1748,7 @@
         <v>0.88541666666666663</v>
       </c>
       <c r="F10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G10">
         <v>186</v>
@@ -1813,7 +1810,7 @@
         <v>0.88541666666666663</v>
       </c>
       <c r="F11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G11">
         <v>187</v>
@@ -1875,7 +1872,7 @@
         <v>0.88541666666666663</v>
       </c>
       <c r="F12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G12">
         <v>188</v>
@@ -1937,7 +1934,7 @@
         <v>0.88541666666666663</v>
       </c>
       <c r="F13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G13">
         <v>188</v>
@@ -1999,7 +1996,7 @@
         <v>0.88541666666666663</v>
       </c>
       <c r="F14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G14">
         <v>188</v>
@@ -2061,7 +2058,7 @@
         <v>0.88541666666666663</v>
       </c>
       <c r="F15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G15">
         <v>189</v>
@@ -2123,7 +2120,7 @@
         <v>0.88541666666666663</v>
       </c>
       <c r="F16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G16">
         <v>189</v>
@@ -2185,7 +2182,7 @@
         <v>0.88541666666666663</v>
       </c>
       <c r="F17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G17">
         <v>189</v>
@@ -2247,7 +2244,7 @@
         <v>0.88541666666666663</v>
       </c>
       <c r="F18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G18">
         <v>189</v>
@@ -2309,7 +2306,7 @@
         <v>0.88541666666666663</v>
       </c>
       <c r="F19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G19">
         <v>190</v>
@@ -2371,7 +2368,7 @@
         <v>0.88541666666666663</v>
       </c>
       <c r="F20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G20">
         <v>191</v>
@@ -2433,7 +2430,7 @@
         <v>0.88541666666666663</v>
       </c>
       <c r="F21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G21">
         <v>191</v>
@@ -2495,7 +2492,7 @@
         <v>0.88541666666666663</v>
       </c>
       <c r="F22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G22">
         <v>192</v>
@@ -2557,7 +2554,7 @@
         <v>0.88541666666666663</v>
       </c>
       <c r="F23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G23">
         <v>192</v>
@@ -2619,7 +2616,7 @@
         <v>0.88541666666666663</v>
       </c>
       <c r="F24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G24">
         <v>192</v>
@@ -2681,7 +2678,7 @@
         <v>0.88541666666666663</v>
       </c>
       <c r="F25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G25">
         <v>192</v>
@@ -2743,7 +2740,7 @@
         <v>0.88541666666666663</v>
       </c>
       <c r="F26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G26">
         <v>193</v>
@@ -2805,7 +2802,7 @@
         <v>0.88541666666666663</v>
       </c>
       <c r="F27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G27">
         <v>193</v>
@@ -2867,7 +2864,7 @@
         <v>0.88541666666666663</v>
       </c>
       <c r="F28" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G28">
         <v>194</v>
@@ -2929,7 +2926,7 @@
         <v>0.88541666666666663</v>
       </c>
       <c r="F29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G29">
         <v>194</v>
@@ -2991,7 +2988,7 @@
         <v>0.88541666666666663</v>
       </c>
       <c r="F30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G30">
         <v>195</v>
@@ -3053,7 +3050,7 @@
         <v>0.88541666666666663</v>
       </c>
       <c r="F31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G31">
         <v>195</v>
@@ -3115,7 +3112,7 @@
         <v>0.88541666666666663</v>
       </c>
       <c r="F32" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G32">
         <v>195</v>
@@ -3177,7 +3174,7 @@
         <v>0.88541666666666663</v>
       </c>
       <c r="F33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G33">
         <v>196</v>
@@ -3239,7 +3236,7 @@
         <v>0.88541666666666663</v>
       </c>
       <c r="F34" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G34">
         <v>196</v>
@@ -3301,7 +3298,7 @@
         <v>0.88541666666666663</v>
       </c>
       <c r="F35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G35">
         <v>196</v>
@@ -3363,7 +3360,7 @@
         <v>0.88541666666666663</v>
       </c>
       <c r="F36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G36">
         <v>196</v>
@@ -3425,7 +3422,7 @@
         <v>0.95208333333333339</v>
       </c>
       <c r="F37" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G37">
         <v>197</v>
@@ -3470,7 +3467,7 @@
         <v>38</v>
       </c>
       <c r="U37" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.35">
@@ -3487,7 +3484,7 @@
         <v>0.95208333333333339</v>
       </c>
       <c r="F38" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G38">
         <v>197</v>
@@ -3532,7 +3529,7 @@
         <v>38</v>
       </c>
       <c r="U38" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.35">
@@ -3549,7 +3546,7 @@
         <v>0.95208333333333339</v>
       </c>
       <c r="F39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G39">
         <v>197</v>
@@ -3594,7 +3591,7 @@
         <v>38</v>
       </c>
       <c r="U39" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.35">
@@ -3611,7 +3608,7 @@
         <v>0.95208333333333339</v>
       </c>
       <c r="F40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G40">
         <v>198</v>
@@ -3656,7 +3653,7 @@
         <v>38</v>
       </c>
       <c r="U40" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.35">
@@ -3673,7 +3670,7 @@
         <v>0.95208333333333339</v>
       </c>
       <c r="F41" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G41">
         <v>199</v>
@@ -3718,7 +3715,7 @@
         <v>38</v>
       </c>
       <c r="U41" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.35">
@@ -3735,7 +3732,7 @@
         <v>0.95208333333333339</v>
       </c>
       <c r="F42" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G42">
         <v>199</v>
@@ -3780,7 +3777,7 @@
         <v>38</v>
       </c>
       <c r="U42" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.35">
@@ -3797,7 +3794,7 @@
         <v>0.95208333333333339</v>
       </c>
       <c r="F43" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G43">
         <v>199</v>
@@ -3842,7 +3839,7 @@
         <v>38</v>
       </c>
       <c r="U43" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.35">
@@ -3859,7 +3856,7 @@
         <v>0.95208333333333339</v>
       </c>
       <c r="F44" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G44">
         <v>200</v>
@@ -3904,7 +3901,7 @@
         <v>38</v>
       </c>
       <c r="U44" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.35">
@@ -3921,7 +3918,7 @@
         <v>0.95208333333333339</v>
       </c>
       <c r="F45" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G45">
         <v>201</v>
@@ -3966,7 +3963,7 @@
         <v>38</v>
       </c>
       <c r="U45" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.35">
@@ -3983,7 +3980,7 @@
         <v>0.95208333333333339</v>
       </c>
       <c r="F46" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G46">
         <v>202</v>
@@ -4028,7 +4025,7 @@
         <v>38</v>
       </c>
       <c r="U46" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.35">
@@ -4045,7 +4042,7 @@
         <v>0.95208333333333339</v>
       </c>
       <c r="F47" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G47">
         <v>202</v>
@@ -4090,7 +4087,7 @@
         <v>38</v>
       </c>
       <c r="U47" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.35">
@@ -4107,7 +4104,7 @@
         <v>0.95208333333333339</v>
       </c>
       <c r="F48" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G48">
         <v>202</v>
@@ -4152,7 +4149,7 @@
         <v>38</v>
       </c>
       <c r="U48" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.35">
@@ -4169,7 +4166,7 @@
         <v>0.95208333333333339</v>
       </c>
       <c r="F49" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G49">
         <v>203</v>
@@ -4214,7 +4211,7 @@
         <v>38</v>
       </c>
       <c r="U49" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.35">
@@ -4231,7 +4228,7 @@
         <v>0.95208333333333339</v>
       </c>
       <c r="F50" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G50">
         <v>204</v>
@@ -4276,7 +4273,7 @@
         <v>38</v>
       </c>
       <c r="U50" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.35">
@@ -4293,7 +4290,7 @@
         <v>0.95208333333333339</v>
       </c>
       <c r="F51" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G51">
         <v>204</v>
@@ -4338,7 +4335,7 @@
         <v>38</v>
       </c>
       <c r="U51" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.35">
@@ -4355,7 +4352,7 @@
         <v>0.95208333333333339</v>
       </c>
       <c r="F52" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G52">
         <v>204</v>
@@ -4400,7 +4397,7 @@
         <v>38</v>
       </c>
       <c r="U52" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.35">
@@ -4417,7 +4414,7 @@
         <v>0.95208333333333339</v>
       </c>
       <c r="F53" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G53">
         <v>204</v>
@@ -4462,7 +4459,7 @@
         <v>38</v>
       </c>
       <c r="U53" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.35">
@@ -4479,7 +4476,7 @@
         <v>0.95208333333333339</v>
       </c>
       <c r="F54" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G54">
         <v>204</v>
@@ -4524,7 +4521,7 @@
         <v>38</v>
       </c>
       <c r="U54" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.35">
@@ -4541,7 +4538,7 @@
         <v>0.95208333333333339</v>
       </c>
       <c r="F55" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G55">
         <v>204</v>
@@ -4586,7 +4583,7 @@
         <v>38</v>
       </c>
       <c r="U55" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.35">
@@ -4603,7 +4600,7 @@
         <v>0.95208333333333339</v>
       </c>
       <c r="F56" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G56">
         <v>204</v>
@@ -4648,7 +4645,7 @@
         <v>38</v>
       </c>
       <c r="U56" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.35">
@@ -4665,7 +4662,7 @@
         <v>0.95208333333333339</v>
       </c>
       <c r="F57" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G57">
         <v>204</v>
@@ -4710,7 +4707,7 @@
         <v>38</v>
       </c>
       <c r="U57" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.35">
@@ -4727,7 +4724,7 @@
         <v>0.95208333333333339</v>
       </c>
       <c r="F58" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G58">
         <v>204</v>
@@ -4772,7 +4769,7 @@
         <v>38</v>
       </c>
       <c r="U58" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.35">
@@ -4789,7 +4786,7 @@
         <v>0.95208333333333339</v>
       </c>
       <c r="F59" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G59">
         <v>204</v>
@@ -4834,7 +4831,7 @@
         <v>38</v>
       </c>
       <c r="U59" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.35">
@@ -4851,7 +4848,7 @@
         <v>0.95208333333333339</v>
       </c>
       <c r="F60" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G60">
         <v>204</v>
@@ -4896,7 +4893,7 @@
         <v>38</v>
       </c>
       <c r="U60" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.35">
@@ -4913,7 +4910,7 @@
         <v>0.95208333333333339</v>
       </c>
       <c r="F61" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G61">
         <v>204</v>
@@ -4958,7 +4955,7 @@
         <v>38</v>
       </c>
       <c r="U61" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.35">
@@ -4975,7 +4972,7 @@
         <v>0.95208333333333339</v>
       </c>
       <c r="F62" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G62">
         <v>204</v>
@@ -5020,7 +5017,7 @@
         <v>38</v>
       </c>
       <c r="U62" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.35">
@@ -5037,7 +5034,7 @@
         <v>0.95208333333333339</v>
       </c>
       <c r="F63" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G63">
         <v>204</v>
@@ -5082,7 +5079,7 @@
         <v>38</v>
       </c>
       <c r="U63" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.35">
@@ -5099,7 +5096,7 @@
         <v>0.95208333333333339</v>
       </c>
       <c r="F64" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G64">
         <v>204</v>
@@ -5144,7 +5141,7 @@
         <v>38</v>
       </c>
       <c r="U64" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.35">
@@ -5161,7 +5158,7 @@
         <v>0.95208333333333339</v>
       </c>
       <c r="F65" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G65">
         <v>204</v>
@@ -5206,7 +5203,7 @@
         <v>38</v>
       </c>
       <c r="U65" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.35">
@@ -5223,7 +5220,7 @@
         <v>0.95208333333333339</v>
       </c>
       <c r="F66" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G66">
         <v>205</v>
@@ -5268,7 +5265,7 @@
         <v>38</v>
       </c>
       <c r="U66" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.35">
@@ -5285,7 +5282,7 @@
         <v>0.95208333333333339</v>
       </c>
       <c r="F67" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G67">
         <v>205</v>
@@ -5330,7 +5327,7 @@
         <v>38</v>
       </c>
       <c r="U67" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.35">
@@ -5347,7 +5344,7 @@
         <v>0.95208333333333339</v>
       </c>
       <c r="F68" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G68">
         <v>205</v>
@@ -5392,7 +5389,7 @@
         <v>38</v>
       </c>
       <c r="U68" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.35">
@@ -5409,7 +5406,7 @@
         <v>0.95208333333333339</v>
       </c>
       <c r="F69" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G69">
         <v>205</v>
@@ -5454,7 +5451,7 @@
         <v>38</v>
       </c>
       <c r="U69" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.35">
@@ -5471,7 +5468,7 @@
         <v>0.95208333333333339</v>
       </c>
       <c r="F70" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G70">
         <v>205</v>
@@ -5516,7 +5513,7 @@
         <v>38</v>
       </c>
       <c r="U70" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.35">
@@ -5533,7 +5530,7 @@
         <v>0.95208333333333339</v>
       </c>
       <c r="F71" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G71">
         <v>206</v>
@@ -5578,7 +5575,7 @@
         <v>38</v>
       </c>
       <c r="U71" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.35">
@@ -5595,7 +5592,7 @@
         <v>0.95208333333333339</v>
       </c>
       <c r="F72" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G72">
         <v>206</v>
@@ -5640,7 +5637,7 @@
         <v>38</v>
       </c>
       <c r="U72" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.35">
@@ -5657,7 +5654,7 @@
         <v>0.95208333333333339</v>
       </c>
       <c r="F73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G73">
         <v>206</v>
@@ -5702,7 +5699,7 @@
         <v>38</v>
       </c>
       <c r="U73" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.35">
@@ -5719,7 +5716,7 @@
         <v>0.95208333333333339</v>
       </c>
       <c r="F74" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G74">
         <v>206</v>
@@ -5764,7 +5761,7 @@
         <v>38</v>
       </c>
       <c r="U74" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.35">
@@ -5781,7 +5778,7 @@
         <v>0.95208333333333339</v>
       </c>
       <c r="F75" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G75">
         <v>207</v>
@@ -5826,7 +5823,7 @@
         <v>38</v>
       </c>
       <c r="U75" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.35">
@@ -5843,7 +5840,7 @@
         <v>0.95208333333333339</v>
       </c>
       <c r="F76" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G76">
         <v>207</v>
@@ -5888,7 +5885,7 @@
         <v>38</v>
       </c>
       <c r="U76" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.35">
@@ -5905,7 +5902,7 @@
         <v>0.95208333333333339</v>
       </c>
       <c r="F77" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G77">
         <v>207</v>
@@ -5950,7 +5947,7 @@
         <v>38</v>
       </c>
       <c r="U77" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.35">
@@ -5967,7 +5964,7 @@
         <v>0.95208333333333339</v>
       </c>
       <c r="F78" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G78">
         <v>207</v>
@@ -6012,7 +6009,7 @@
         <v>38</v>
       </c>
       <c r="U78" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.35">
@@ -6029,7 +6026,7 @@
         <v>0.95208333333333339</v>
       </c>
       <c r="F79" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G79">
         <v>207</v>
@@ -6074,7 +6071,7 @@
         <v>38</v>
       </c>
       <c r="U79" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.35">
@@ -6091,7 +6088,7 @@
         <v>0.95208333333333339</v>
       </c>
       <c r="F80" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G80">
         <v>207</v>
@@ -6136,7 +6133,7 @@
         <v>38</v>
       </c>
       <c r="U80" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.35">
@@ -6153,7 +6150,7 @@
         <v>0.95208333333333339</v>
       </c>
       <c r="F81" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G81">
         <v>207</v>
@@ -6198,7 +6195,7 @@
         <v>38</v>
       </c>
       <c r="U81" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.35">
@@ -6215,7 +6212,7 @@
         <v>0.95208333333333339</v>
       </c>
       <c r="F82" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G82">
         <v>207</v>
@@ -6260,7 +6257,7 @@
         <v>38</v>
       </c>
       <c r="U82" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.35">
@@ -6277,7 +6274,7 @@
         <v>0.95208333333333339</v>
       </c>
       <c r="F83" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G83">
         <v>207</v>
@@ -6322,7 +6319,7 @@
         <v>38</v>
       </c>
       <c r="U83" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.35">
@@ -6339,7 +6336,7 @@
         <v>0.95208333333333339</v>
       </c>
       <c r="F84" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G84">
         <v>207</v>
@@ -6384,7 +6381,7 @@
         <v>38</v>
       </c>
       <c r="U84" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.35">
@@ -6401,7 +6398,7 @@
         <v>0.95208333333333339</v>
       </c>
       <c r="F85" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G85">
         <v>207</v>
@@ -6446,7 +6443,7 @@
         <v>38</v>
       </c>
       <c r="U85" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.35">
@@ -6463,7 +6460,7 @@
         <v>0.79305555555555562</v>
       </c>
       <c r="F86" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G86">
         <v>208</v>
@@ -6525,7 +6522,7 @@
         <v>0.79305555555555562</v>
       </c>
       <c r="F87" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G87">
         <v>208</v>
@@ -6587,7 +6584,7 @@
         <v>0.79305555555555562</v>
       </c>
       <c r="F88" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G88">
         <v>209</v>
@@ -6649,7 +6646,7 @@
         <v>0.79305555555555562</v>
       </c>
       <c r="F89" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G89">
         <v>209</v>
@@ -6711,7 +6708,7 @@
         <v>0.79305555555555562</v>
       </c>
       <c r="F90" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G90">
         <v>210</v>
@@ -6773,7 +6770,7 @@
         <v>0.79305555555555562</v>
       </c>
       <c r="F91" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G91">
         <v>210</v>
@@ -6835,7 +6832,7 @@
         <v>0.79305555555555562</v>
       </c>
       <c r="F92" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G92">
         <v>211</v>
@@ -6897,7 +6894,7 @@
         <v>0.79305555555555562</v>
       </c>
       <c r="F93" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G93">
         <v>212</v>
@@ -6959,7 +6956,7 @@
         <v>0.79305555555555562</v>
       </c>
       <c r="F94" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G94">
         <v>213</v>
@@ -7021,7 +7018,7 @@
         <v>0.79305555555555562</v>
       </c>
       <c r="F95" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G95">
         <v>214</v>
@@ -7083,7 +7080,7 @@
         <v>0.79305555555555562</v>
       </c>
       <c r="F96" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G96">
         <v>215</v>
@@ -7145,7 +7142,7 @@
         <v>0.79305555555555562</v>
       </c>
       <c r="F97" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G97">
         <v>215</v>
@@ -7207,7 +7204,7 @@
         <v>0.79305555555555562</v>
       </c>
       <c r="F98" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G98">
         <v>215</v>
@@ -7269,7 +7266,7 @@
         <v>0.79305555555555562</v>
       </c>
       <c r="F99" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G99">
         <v>215</v>
@@ -7331,7 +7328,7 @@
         <v>0.79305555555555562</v>
       </c>
       <c r="F100" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G100">
         <v>215</v>
@@ -7393,7 +7390,7 @@
         <v>0.66388888888888886</v>
       </c>
       <c r="F101" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G101">
         <v>217</v>
@@ -7455,7 +7452,7 @@
         <v>0.66388888888888886</v>
       </c>
       <c r="F102" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G102">
         <v>220</v>
@@ -7517,7 +7514,7 @@
         <v>0.66388888888888886</v>
       </c>
       <c r="F103" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G103">
         <v>221</v>
@@ -7579,7 +7576,7 @@
         <v>0.66388888888888886</v>
       </c>
       <c r="F104" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G104">
         <v>221</v>
@@ -7641,7 +7638,7 @@
         <v>0.66388888888888886</v>
       </c>
       <c r="F105" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G105">
         <v>222</v>
@@ -7703,7 +7700,7 @@
         <v>0.66388888888888886</v>
       </c>
       <c r="F106" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G106">
         <v>222</v>
@@ -7765,7 +7762,7 @@
         <v>0.66388888888888886</v>
       </c>
       <c r="F107" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G107">
         <v>223</v>
@@ -7827,7 +7824,7 @@
         <v>0.66388888888888886</v>
       </c>
       <c r="F108" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G108">
         <v>223</v>
@@ -7889,7 +7886,7 @@
         <v>0.66388888888888886</v>
       </c>
       <c r="F109" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G109">
         <v>224</v>
@@ -7951,7 +7948,7 @@
         <v>0.66388888888888886</v>
       </c>
       <c r="F110" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G110">
         <v>224</v>
@@ -8013,7 +8010,7 @@
         <v>0.66388888888888886</v>
       </c>
       <c r="F111" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G111">
         <v>224</v>
@@ -8075,7 +8072,7 @@
         <v>0.66388888888888886</v>
       </c>
       <c r="F112" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G112">
         <v>224</v>
@@ -8137,7 +8134,7 @@
         <v>0.66388888888888886</v>
       </c>
       <c r="F113" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G113">
         <v>225</v>
@@ -8199,7 +8196,7 @@
         <v>0.66388888888888886</v>
       </c>
       <c r="F114" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G114">
         <v>225</v>
@@ -8261,7 +8258,7 @@
         <v>0.66388888888888886</v>
       </c>
       <c r="F115" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G115">
         <v>226</v>
@@ -8323,7 +8320,7 @@
         <v>0.66388888888888886</v>
       </c>
       <c r="F116" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G116">
         <v>226</v>
@@ -8385,7 +8382,7 @@
         <v>0.66388888888888886</v>
       </c>
       <c r="F117" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G117">
         <v>226</v>
@@ -8447,7 +8444,7 @@
         <v>0.66388888888888886</v>
       </c>
       <c r="F118" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G118">
         <v>227</v>
@@ -8509,7 +8506,7 @@
         <v>0.66388888888888886</v>
       </c>
       <c r="F119" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G119">
         <v>227</v>
@@ -8571,7 +8568,7 @@
         <v>0.66388888888888886</v>
       </c>
       <c r="F120" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G120">
         <v>228</v>
@@ -8633,7 +8630,7 @@
         <v>0.66388888888888886</v>
       </c>
       <c r="F121" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G121">
         <v>228</v>
@@ -8695,7 +8692,7 @@
         <v>0.66388888888888886</v>
       </c>
       <c r="F122" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G122">
         <v>228</v>
@@ -8757,7 +8754,7 @@
         <v>0.66388888888888886</v>
       </c>
       <c r="F123" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G123">
         <v>229</v>
@@ -8819,7 +8816,7 @@
         <v>0.66388888888888886</v>
       </c>
       <c r="F124" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G124">
         <v>229</v>
@@ -8881,7 +8878,7 @@
         <v>0.66388888888888886</v>
       </c>
       <c r="F125" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G125">
         <v>230</v>
@@ -8943,7 +8940,7 @@
         <v>0.66388888888888886</v>
       </c>
       <c r="F126" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G126">
         <v>230</v>
@@ -9008,7 +9005,7 @@
         <v>0.88541666666666663</v>
       </c>
       <c r="F127" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G127">
         <v>237</v>
@@ -9053,7 +9050,7 @@
         <v>38</v>
       </c>
       <c r="U127" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="128" spans="1:21" x14ac:dyDescent="0.35">
@@ -9073,7 +9070,7 @@
         <v>0.88541666666666663</v>
       </c>
       <c r="F128" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G128">
         <v>238</v>
@@ -9118,7 +9115,7 @@
         <v>38</v>
       </c>
       <c r="U128" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="129" spans="1:21" x14ac:dyDescent="0.35">
@@ -9138,7 +9135,7 @@
         <v>0.88541666666666663</v>
       </c>
       <c r="F129" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G129">
         <v>239</v>
@@ -9183,7 +9180,7 @@
         <v>38</v>
       </c>
       <c r="U129" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="130" spans="1:21" x14ac:dyDescent="0.35">
@@ -9203,7 +9200,7 @@
         <v>0.88541666666666663</v>
       </c>
       <c r="F130" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G130">
         <v>240</v>
@@ -9248,7 +9245,7 @@
         <v>38</v>
       </c>
       <c r="U130" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="131" spans="1:21" x14ac:dyDescent="0.35">
@@ -9268,7 +9265,7 @@
         <v>0.88541666666666663</v>
       </c>
       <c r="F131" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G131">
         <v>240</v>
@@ -9313,7 +9310,7 @@
         <v>38</v>
       </c>
       <c r="U131" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="132" spans="1:21" x14ac:dyDescent="0.35">
@@ -9333,7 +9330,7 @@
         <v>0.88541666666666663</v>
       </c>
       <c r="F132" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G132">
         <v>241</v>
@@ -9378,7 +9375,7 @@
         <v>38</v>
       </c>
       <c r="U132" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="133" spans="1:21" x14ac:dyDescent="0.35">
@@ -9398,7 +9395,7 @@
         <v>0.88541666666666663</v>
       </c>
       <c r="F133" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G133">
         <v>242</v>
@@ -9443,7 +9440,7 @@
         <v>38</v>
       </c>
       <c r="U133" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="134" spans="1:21" x14ac:dyDescent="0.35">
@@ -9463,7 +9460,7 @@
         <v>0.88541666666666663</v>
       </c>
       <c r="F134" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G134">
         <v>243</v>
@@ -9508,7 +9505,7 @@
         <v>38</v>
       </c>
       <c r="U134" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="135" spans="1:21" x14ac:dyDescent="0.35">
@@ -9528,7 +9525,7 @@
         <v>0.88541666666666663</v>
       </c>
       <c r="F135" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G135">
         <v>244</v>
@@ -9573,7 +9570,7 @@
         <v>38</v>
       </c>
       <c r="U135" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="136" spans="1:21" x14ac:dyDescent="0.35">
@@ -9593,7 +9590,7 @@
         <v>0.88541666666666663</v>
       </c>
       <c r="F136" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G136">
         <v>245</v>
@@ -9638,7 +9635,7 @@
         <v>38</v>
       </c>
       <c r="U136" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="137" spans="1:21" x14ac:dyDescent="0.35">
@@ -9658,7 +9655,7 @@
         <v>0.88541666666666663</v>
       </c>
       <c r="F137" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G137">
         <v>246</v>
@@ -9703,7 +9700,7 @@
         <v>38</v>
       </c>
       <c r="U137" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="138" spans="1:21" x14ac:dyDescent="0.35">
@@ -9723,7 +9720,7 @@
         <v>0.88541666666666663</v>
       </c>
       <c r="F138" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G138">
         <v>247</v>
@@ -9768,7 +9765,7 @@
         <v>38</v>
       </c>
       <c r="U138" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="139" spans="1:21" x14ac:dyDescent="0.35">
@@ -9788,7 +9785,7 @@
         <v>0.88541666666666663</v>
       </c>
       <c r="F139" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G139">
         <v>248</v>
@@ -9833,7 +9830,7 @@
         <v>38</v>
       </c>
       <c r="U139" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="140" spans="1:21" x14ac:dyDescent="0.35">
@@ -9853,7 +9850,7 @@
         <v>0.88541666666666663</v>
       </c>
       <c r="F140" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G140">
         <v>248</v>
@@ -9898,7 +9895,7 @@
         <v>38</v>
       </c>
       <c r="U140" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="141" spans="1:21" x14ac:dyDescent="0.35">
@@ -9918,7 +9915,7 @@
         <v>0.88541666666666663</v>
       </c>
       <c r="F141" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G141">
         <v>248</v>
@@ -9963,7 +9960,7 @@
         <v>38</v>
       </c>
       <c r="U141" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="142" spans="1:21" x14ac:dyDescent="0.35">
@@ -9983,7 +9980,7 @@
         <v>0.88541666666666663</v>
       </c>
       <c r="F142" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G142">
         <v>249</v>
@@ -10028,7 +10025,7 @@
         <v>38</v>
       </c>
       <c r="U142" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="143" spans="1:21" x14ac:dyDescent="0.35">
@@ -10048,7 +10045,7 @@
         <v>0.88541666666666663</v>
       </c>
       <c r="F143" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G143">
         <v>250</v>
@@ -10093,7 +10090,7 @@
         <v>38</v>
       </c>
       <c r="U143" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="144" spans="1:21" x14ac:dyDescent="0.35">
@@ -10113,7 +10110,7 @@
         <v>0.88541666666666663</v>
       </c>
       <c r="F144" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G144">
         <v>250</v>
@@ -10158,7 +10155,7 @@
         <v>38</v>
       </c>
       <c r="U144" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="145" spans="1:21" x14ac:dyDescent="0.35">
@@ -10178,7 +10175,7 @@
         <v>0.88541666666666663</v>
       </c>
       <c r="F145" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G145">
         <v>250</v>
@@ -10223,7 +10220,7 @@
         <v>38</v>
       </c>
       <c r="U145" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="146" spans="1:21" x14ac:dyDescent="0.35">
@@ -10243,7 +10240,7 @@
         <v>0.88541666666666663</v>
       </c>
       <c r="F146" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G146">
         <v>251</v>
@@ -10288,7 +10285,7 @@
         <v>38</v>
       </c>
       <c r="U146" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="147" spans="1:21" x14ac:dyDescent="0.35">
@@ -10308,7 +10305,7 @@
         <v>0.88541666666666663</v>
       </c>
       <c r="F147" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G147">
         <v>252</v>
@@ -10353,7 +10350,7 @@
         <v>38</v>
       </c>
       <c r="U147" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="148" spans="1:21" x14ac:dyDescent="0.35">
@@ -10373,7 +10370,7 @@
         <v>0.88541666666666663</v>
       </c>
       <c r="F148" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G148">
         <v>253</v>
@@ -10418,7 +10415,7 @@
         <v>38</v>
       </c>
       <c r="U148" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="149" spans="1:21" x14ac:dyDescent="0.35">
@@ -10438,7 +10435,7 @@
         <v>0.88541666666666663</v>
       </c>
       <c r="F149" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G149">
         <v>253</v>
@@ -10483,7 +10480,7 @@
         <v>38</v>
       </c>
       <c r="U149" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="150" spans="1:21" x14ac:dyDescent="0.35">
@@ -10503,7 +10500,7 @@
         <v>0.88541666666666663</v>
       </c>
       <c r="F150" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G150">
         <v>254</v>
@@ -10548,7 +10545,7 @@
         <v>38</v>
       </c>
       <c r="U150" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="151" spans="1:21" x14ac:dyDescent="0.35">
@@ -10568,7 +10565,7 @@
         <v>0.88541666666666663</v>
       </c>
       <c r="F151" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G151">
         <v>255</v>
@@ -10613,7 +10610,7 @@
         <v>38</v>
       </c>
       <c r="U151" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="152" spans="1:21" x14ac:dyDescent="0.35">
@@ -10633,7 +10630,7 @@
         <v>0.88541666666666663</v>
       </c>
       <c r="F152" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G152">
         <v>256</v>
@@ -10678,7 +10675,7 @@
         <v>38</v>
       </c>
       <c r="U152" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="153" spans="1:21" x14ac:dyDescent="0.35">
@@ -10698,7 +10695,7 @@
         <v>0.88541666666666663</v>
       </c>
       <c r="F153" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G153">
         <v>257</v>
@@ -10743,7 +10740,7 @@
         <v>38</v>
       </c>
       <c r="U153" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="154" spans="1:21" x14ac:dyDescent="0.35">
@@ -10763,7 +10760,7 @@
         <v>0.88541666666666663</v>
       </c>
       <c r="F154" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G154">
         <v>257</v>
@@ -10808,7 +10805,7 @@
         <v>38</v>
       </c>
       <c r="U154" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="155" spans="1:21" x14ac:dyDescent="0.35">
@@ -10828,7 +10825,7 @@
         <v>0.88541666666666663</v>
       </c>
       <c r="F155" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G155">
         <v>258</v>
@@ -10873,7 +10870,7 @@
         <v>38</v>
       </c>
       <c r="U155" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="156" spans="1:21" x14ac:dyDescent="0.35">
@@ -10893,7 +10890,7 @@
         <v>0.75555555555555554</v>
       </c>
       <c r="F156" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G156">
         <v>261</v>
@@ -10958,7 +10955,7 @@
         <v>0.75555555555555554</v>
       </c>
       <c r="F157" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G157">
         <v>262</v>
@@ -11023,7 +11020,7 @@
         <v>0.75555555555555554</v>
       </c>
       <c r="F158" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G158">
         <v>263</v>
@@ -11088,7 +11085,7 @@
         <v>0.75555555555555554</v>
       </c>
       <c r="F159" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G159">
         <v>265</v>
@@ -11153,7 +11150,7 @@
         <v>0.75555555555555554</v>
       </c>
       <c r="F160" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G160">
         <v>266</v>
@@ -11218,7 +11215,7 @@
         <v>0.75555555555555554</v>
       </c>
       <c r="F161" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G161">
         <v>267</v>
@@ -11283,7 +11280,7 @@
         <v>0.75555555555555554</v>
       </c>
       <c r="F162" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G162">
         <v>268</v>
@@ -11348,7 +11345,7 @@
         <v>0.75555555555555554</v>
       </c>
       <c r="F163" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G163">
         <v>269</v>
@@ -11413,7 +11410,7 @@
         <v>0.75555555555555554</v>
       </c>
       <c r="F164" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G164">
         <v>269</v>
@@ -11478,7 +11475,7 @@
         <v>0.49027777777777781</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G165">
         <v>2</v>
@@ -11543,7 +11540,7 @@
         <v>0.49027777777777781</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G166">
         <v>3</v>
@@ -11608,7 +11605,7 @@
         <v>0.49027777777777781</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G167">
         <v>4</v>
@@ -11673,7 +11670,7 @@
         <v>0.49027777777777781</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G168">
         <v>5</v>
@@ -11738,7 +11735,7 @@
         <v>0.49027777777777781</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G169">
         <v>6</v>
@@ -11803,7 +11800,7 @@
         <v>0.49027777777777781</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G170">
         <v>7</v>
@@ -11868,7 +11865,7 @@
         <v>0.49027777777777781</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G171">
         <v>8</v>
@@ -11933,7 +11930,7 @@
         <v>0.49027777777777781</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G172">
         <v>9</v>
@@ -11998,7 +11995,7 @@
         <v>0.49027777777777781</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G173">
         <v>10</v>
@@ -12063,7 +12060,7 @@
         <v>0.49027777777777781</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G174">
         <v>11</v>
@@ -12128,7 +12125,7 @@
         <v>0.49027777777777781</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G175">
         <v>12</v>
@@ -12193,7 +12190,7 @@
         <v>0.49027777777777781</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G176">
         <v>13</v>
@@ -12258,7 +12255,7 @@
         <v>0.49027777777777781</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G177">
         <v>14</v>
@@ -12323,7 +12320,7 @@
         <v>0.49027777777777781</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G178">
         <v>15</v>
@@ -12388,7 +12385,7 @@
         <v>0.63888888888888895</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G179">
         <v>18</v>
@@ -12453,7 +12450,7 @@
         <v>0.63888888888888895</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G180">
         <v>19</v>
@@ -12518,7 +12515,7 @@
         <v>0.63888888888888895</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G181">
         <v>20</v>
@@ -12583,7 +12580,7 @@
         <v>0.63888888888888895</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G182">
         <v>21</v>
@@ -12648,7 +12645,7 @@
         <v>0.63888888888888895</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G183">
         <v>22</v>
@@ -12693,7 +12690,7 @@
         <v>74</v>
       </c>
       <c r="U183" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="184" spans="1:21" x14ac:dyDescent="0.35">
@@ -12713,7 +12710,7 @@
         <v>0.63888888888888895</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G184">
         <v>22</v>
@@ -12758,7 +12755,7 @@
         <v>74</v>
       </c>
       <c r="U184" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="185" spans="1:21" x14ac:dyDescent="0.35">
@@ -12778,7 +12775,7 @@
         <v>0.63888888888888895</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G185">
         <v>23</v>
@@ -12843,7 +12840,7 @@
         <v>0.63888888888888895</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G186">
         <v>24</v>
@@ -12888,7 +12885,7 @@
         <v>74</v>
       </c>
       <c r="U186" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="187" spans="1:21" x14ac:dyDescent="0.35">
@@ -12908,7 +12905,7 @@
         <v>0.63888888888888895</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G187">
         <v>24</v>
@@ -12953,7 +12950,7 @@
         <v>74</v>
       </c>
       <c r="U187" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="188" spans="1:21" x14ac:dyDescent="0.35">
@@ -12973,7 +12970,7 @@
         <v>0.63888888888888895</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G188">
         <v>25</v>
@@ -13038,7 +13035,7 @@
         <v>0.63888888888888895</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G189">
         <v>26</v>
@@ -13103,7 +13100,7 @@
         <v>0.63888888888888895</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G190">
         <v>26</v>
@@ -13168,7 +13165,7 @@
         <v>0.63888888888888895</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G191">
         <v>27</v>
@@ -13233,7 +13230,7 @@
         <v>0.63888888888888895</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G192">
         <v>28</v>
@@ -13298,7 +13295,7 @@
         <v>0.63888888888888895</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G193">
         <v>29</v>
@@ -13363,7 +13360,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G194">
         <v>34</v>
@@ -13428,7 +13425,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G195">
         <v>35</v>
@@ -13493,7 +13490,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="F196" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G196">
         <v>36</v>
@@ -13558,7 +13555,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G197">
         <v>37</v>
@@ -13623,7 +13620,7 @@
         <v>0.5180555555555556</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G198">
         <v>44</v>
@@ -13688,7 +13685,7 @@
         <v>0.5180555555555556</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G199">
         <v>46</v>
@@ -13753,7 +13750,7 @@
         <v>0.5180555555555556</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G200">
         <v>47</v>
@@ -13818,7 +13815,7 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G201">
         <v>48</v>
@@ -13863,7 +13860,7 @@
         <v>38</v>
       </c>
       <c r="U201" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="202" spans="1:21" x14ac:dyDescent="0.35">
@@ -13883,7 +13880,7 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G202">
         <v>50</v>
@@ -13928,7 +13925,7 @@
         <v>38</v>
       </c>
       <c r="U202" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="203" spans="1:21" x14ac:dyDescent="0.35">
@@ -13948,7 +13945,7 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G203">
         <v>51</v>
@@ -13993,7 +13990,7 @@
         <v>38</v>
       </c>
       <c r="U203" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="204" spans="1:21" x14ac:dyDescent="0.35">
@@ -14013,7 +14010,7 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G204">
         <v>52</v>
@@ -14058,7 +14055,7 @@
         <v>38</v>
       </c>
       <c r="U204" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="205" spans="1:21" x14ac:dyDescent="0.35">
@@ -14078,7 +14075,7 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G205">
         <v>53</v>
@@ -14123,7 +14120,7 @@
         <v>38</v>
       </c>
       <c r="U205" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="206" spans="1:21" x14ac:dyDescent="0.35">
@@ -14143,7 +14140,7 @@
         <v>0.50486111111111109</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G206">
         <v>55</v>
@@ -14208,7 +14205,7 @@
         <v>0.50486111111111109</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G207">
         <v>56</v>
@@ -14273,7 +14270,7 @@
         <v>0.50486111111111109</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G208">
         <v>57</v>
@@ -14338,7 +14335,7 @@
         <v>0.50486111111111109</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G209">
         <v>58</v>
@@ -14403,7 +14400,7 @@
         <v>0.50486111111111109</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G210">
         <v>59</v>
@@ -14468,7 +14465,7 @@
         <v>0.50486111111111109</v>
       </c>
       <c r="F211" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G211">
         <v>60</v>
@@ -14533,7 +14530,7 @@
         <v>0.50486111111111109</v>
       </c>
       <c r="F212" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G212">
         <v>61</v>
@@ -14598,7 +14595,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G213">
         <v>64</v>
@@ -14643,7 +14640,7 @@
         <v>91</v>
       </c>
       <c r="U213" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="214" spans="1:21" x14ac:dyDescent="0.35">
@@ -14663,7 +14660,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G214">
         <v>64</v>
@@ -14708,7 +14705,7 @@
         <v>91</v>
       </c>
       <c r="U214" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="215" spans="1:21" x14ac:dyDescent="0.35">
@@ -14728,7 +14725,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="F215" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G215">
         <v>65</v>
@@ -14773,7 +14770,7 @@
         <v>91</v>
       </c>
       <c r="U215" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="216" spans="1:21" x14ac:dyDescent="0.35">
@@ -14793,7 +14790,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="F216" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G216">
         <v>65</v>
@@ -14838,7 +14835,7 @@
         <v>91</v>
       </c>
       <c r="U216" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="217" spans="1:21" x14ac:dyDescent="0.35">
@@ -14858,7 +14855,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="F217" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G217">
         <v>66</v>
@@ -14903,7 +14900,7 @@
         <v>91</v>
       </c>
       <c r="U217" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="218" spans="1:21" x14ac:dyDescent="0.35">
@@ -14923,7 +14920,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="F218" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G218">
         <v>67</v>
@@ -14968,7 +14965,7 @@
         <v>91</v>
       </c>
       <c r="U218" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="219" spans="1:21" x14ac:dyDescent="0.35">
@@ -14988,7 +14985,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G219">
         <v>67</v>
@@ -15033,7 +15030,7 @@
         <v>91</v>
       </c>
       <c r="U219" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="220" spans="1:21" x14ac:dyDescent="0.35">
@@ -15053,7 +15050,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G220">
         <v>67</v>
@@ -15098,7 +15095,7 @@
         <v>91</v>
       </c>
       <c r="U220" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="221" spans="1:21" x14ac:dyDescent="0.35">
@@ -15118,7 +15115,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="F221" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G221">
         <v>67</v>
@@ -15163,7 +15160,7 @@
         <v>91</v>
       </c>
       <c r="U221" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="222" spans="1:21" x14ac:dyDescent="0.35">
@@ -15183,7 +15180,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="F222" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G222">
         <v>68</v>
@@ -15228,7 +15225,7 @@
         <v>91</v>
       </c>
       <c r="U222" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="223" spans="1:21" x14ac:dyDescent="0.35">
@@ -15248,7 +15245,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="F223" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G223">
         <v>68</v>
@@ -15293,7 +15290,7 @@
         <v>91</v>
       </c>
       <c r="U223" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="224" spans="1:21" x14ac:dyDescent="0.35">
@@ -15313,7 +15310,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="F224" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G224">
         <v>68</v>
@@ -15358,7 +15355,7 @@
         <v>91</v>
       </c>
       <c r="U224" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="225" spans="1:21" x14ac:dyDescent="0.35">
@@ -15378,7 +15375,7 @@
         <v>0.48749999999999999</v>
       </c>
       <c r="F225" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G225">
         <v>71</v>
@@ -15443,7 +15440,7 @@
         <v>0.48749999999999999</v>
       </c>
       <c r="F226" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G226">
         <v>72</v>
@@ -15508,7 +15505,7 @@
         <v>0.48749999999999999</v>
       </c>
       <c r="F227" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G227">
         <v>73</v>
@@ -15573,7 +15570,7 @@
         <v>0.48749999999999999</v>
       </c>
       <c r="F228" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G228">
         <v>74</v>
@@ -15638,7 +15635,7 @@
         <v>0.48749999999999999</v>
       </c>
       <c r="F229" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G229">
         <v>75</v>
@@ -15703,7 +15700,7 @@
         <v>0.48749999999999999</v>
       </c>
       <c r="F230" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G230">
         <v>76</v>
@@ -15768,7 +15765,7 @@
         <v>0.48749999999999999</v>
       </c>
       <c r="F231" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G231">
         <v>77</v>
@@ -15833,7 +15830,7 @@
         <v>0.48749999999999999</v>
       </c>
       <c r="F232" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G232">
         <v>78</v>
@@ -15898,7 +15895,7 @@
         <v>0.48749999999999999</v>
       </c>
       <c r="F233" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G233">
         <v>78</v>
@@ -15963,7 +15960,7 @@
         <v>0.48749999999999999</v>
       </c>
       <c r="F234" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G234">
         <v>79</v>
@@ -16028,7 +16025,7 @@
         <v>0.48749999999999999</v>
       </c>
       <c r="F235" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G235">
         <v>80</v>
@@ -16093,7 +16090,7 @@
         <v>0.48749999999999999</v>
       </c>
       <c r="F236" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G236">
         <v>81</v>
@@ -16158,7 +16155,7 @@
         <v>0.48749999999999999</v>
       </c>
       <c r="F237" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G237">
         <v>82</v>
@@ -16223,7 +16220,7 @@
         <v>0.48749999999999999</v>
       </c>
       <c r="F238" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G238">
         <v>83</v>
@@ -16288,7 +16285,7 @@
         <v>0.48749999999999999</v>
       </c>
       <c r="F239" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G239">
         <v>84</v>
@@ -16353,7 +16350,7 @@
         <v>0.64930555555555558</v>
       </c>
       <c r="F240" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G240">
         <v>87</v>
@@ -16398,7 +16395,7 @@
         <v>109</v>
       </c>
       <c r="U240" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="241" spans="1:21" x14ac:dyDescent="0.35">
@@ -16418,7 +16415,7 @@
         <v>0.64930555555555558</v>
       </c>
       <c r="F241" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G241">
         <v>88</v>
@@ -16463,7 +16460,7 @@
         <v>109</v>
       </c>
       <c r="U241" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="242" spans="1:21" x14ac:dyDescent="0.35">
@@ -16483,7 +16480,7 @@
         <v>0.64930555555555558</v>
       </c>
       <c r="F242" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G242">
         <v>88</v>
@@ -16528,7 +16525,7 @@
         <v>109</v>
       </c>
       <c r="U242" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="243" spans="1:21" x14ac:dyDescent="0.35">
@@ -16548,7 +16545,7 @@
         <v>0.64930555555555558</v>
       </c>
       <c r="F243" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G243">
         <v>89</v>
@@ -16593,7 +16590,7 @@
         <v>109</v>
       </c>
       <c r="U243" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="244" spans="1:21" x14ac:dyDescent="0.35">
@@ -16613,7 +16610,7 @@
         <v>0.64930555555555558</v>
       </c>
       <c r="F244" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G244">
         <v>89</v>
@@ -16658,7 +16655,7 @@
         <v>109</v>
       </c>
       <c r="U244" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="245" spans="1:21" x14ac:dyDescent="0.35">
@@ -16678,7 +16675,7 @@
         <v>0.64930555555555558</v>
       </c>
       <c r="F245" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G245">
         <v>89</v>
@@ -16723,7 +16720,7 @@
         <v>109</v>
       </c>
       <c r="U245" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="246" spans="1:21" x14ac:dyDescent="0.35">
@@ -16743,7 +16740,7 @@
         <v>0.64930555555555558</v>
       </c>
       <c r="F246" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G246">
         <v>90</v>
@@ -16788,7 +16785,7 @@
         <v>109</v>
       </c>
       <c r="U246" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="247" spans="1:21" x14ac:dyDescent="0.35">
@@ -16808,7 +16805,7 @@
         <v>0.64930555555555558</v>
       </c>
       <c r="F247" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G247">
         <v>90</v>
@@ -16853,7 +16850,7 @@
         <v>109</v>
       </c>
       <c r="U247" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="248" spans="1:21" x14ac:dyDescent="0.35">
@@ -16873,7 +16870,7 @@
         <v>0.64930555555555558</v>
       </c>
       <c r="F248" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G248">
         <v>91</v>
@@ -16918,7 +16915,7 @@
         <v>109</v>
       </c>
       <c r="U248" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="249" spans="1:21" x14ac:dyDescent="0.35">
@@ -16938,7 +16935,7 @@
         <v>0.64930555555555558</v>
       </c>
       <c r="F249" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G249">
         <v>92</v>
@@ -16983,7 +16980,7 @@
         <v>109</v>
       </c>
       <c r="U249" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="250" spans="1:21" x14ac:dyDescent="0.35">
@@ -17003,7 +17000,7 @@
         <v>0.64930555555555558</v>
       </c>
       <c r="F250" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G250">
         <v>93</v>
@@ -17048,7 +17045,7 @@
         <v>109</v>
       </c>
       <c r="U250" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="251" spans="1:21" x14ac:dyDescent="0.35">
@@ -17068,7 +17065,7 @@
         <v>0.64930555555555558</v>
       </c>
       <c r="F251" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G251">
         <v>94</v>
@@ -17113,7 +17110,7 @@
         <v>109</v>
       </c>
       <c r="U251" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="252" spans="1:21" x14ac:dyDescent="0.35">
@@ -17133,7 +17130,7 @@
         <v>0.64930555555555558</v>
       </c>
       <c r="F252" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G252">
         <v>95</v>
@@ -17178,7 +17175,7 @@
         <v>109</v>
       </c>
       <c r="U252" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="253" spans="1:21" x14ac:dyDescent="0.35">
@@ -17198,7 +17195,7 @@
         <v>0.64930555555555558</v>
       </c>
       <c r="F253" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G253">
         <v>96</v>
@@ -17243,7 +17240,7 @@
         <v>109</v>
       </c>
       <c r="U253" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="254" spans="1:21" x14ac:dyDescent="0.35">
@@ -17263,7 +17260,7 @@
         <v>0.64930555555555558</v>
       </c>
       <c r="F254" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G254">
         <v>96</v>
@@ -17308,7 +17305,7 @@
         <v>109</v>
       </c>
       <c r="U254" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="255" spans="1:21" x14ac:dyDescent="0.35">
@@ -17328,7 +17325,7 @@
         <v>0.64930555555555558</v>
       </c>
       <c r="F255" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G255">
         <v>97</v>
@@ -17373,7 +17370,7 @@
         <v>109</v>
       </c>
       <c r="U255" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="256" spans="1:21" x14ac:dyDescent="0.35">
@@ -17393,7 +17390,7 @@
         <v>0.64930555555555558</v>
       </c>
       <c r="F256" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G256">
         <v>98</v>
@@ -17438,7 +17435,7 @@
         <v>109</v>
       </c>
       <c r="U256" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="257" spans="1:21" x14ac:dyDescent="0.35">
@@ -17458,7 +17455,7 @@
         <v>0.64930555555555558</v>
       </c>
       <c r="F257" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G257">
         <v>98</v>
@@ -17503,7 +17500,7 @@
         <v>109</v>
       </c>
       <c r="U257" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="258" spans="1:21" x14ac:dyDescent="0.35">
@@ -17523,7 +17520,7 @@
         <v>0.64930555555555558</v>
       </c>
       <c r="F258" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G258">
         <v>99</v>
@@ -17568,7 +17565,7 @@
         <v>109</v>
       </c>
       <c r="U258" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="259" spans="1:21" x14ac:dyDescent="0.35">
@@ -17588,7 +17585,7 @@
         <v>0.55486111111111114</v>
       </c>
       <c r="F259" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G259">
         <v>138</v>
@@ -17633,7 +17630,7 @@
         <v>114</v>
       </c>
       <c r="U259" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="260" spans="1:21" x14ac:dyDescent="0.35">
@@ -17653,7 +17650,7 @@
         <v>0.55486111111111114</v>
       </c>
       <c r="F260" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G260">
         <v>138</v>
@@ -17698,7 +17695,7 @@
         <v>114</v>
       </c>
       <c r="U260" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="261" spans="1:21" x14ac:dyDescent="0.35">
@@ -17718,7 +17715,7 @@
         <v>0.55486111111111114</v>
       </c>
       <c r="F261" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G261">
         <v>139</v>
@@ -17763,7 +17760,7 @@
         <v>114</v>
       </c>
       <c r="U261" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="262" spans="1:21" x14ac:dyDescent="0.35">
@@ -17783,7 +17780,7 @@
         <v>0.55486111111111114</v>
       </c>
       <c r="F262" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G262">
         <v>140</v>
@@ -17828,7 +17825,7 @@
         <v>114</v>
       </c>
       <c r="U262" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="263" spans="1:21" x14ac:dyDescent="0.35">
@@ -17848,7 +17845,7 @@
         <v>0.55486111111111114</v>
       </c>
       <c r="F263" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G263">
         <v>141</v>
@@ -17893,7 +17890,7 @@
         <v>114</v>
       </c>
       <c r="U263" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="264" spans="1:21" x14ac:dyDescent="0.35">
@@ -17913,7 +17910,7 @@
         <v>0.55486111111111114</v>
       </c>
       <c r="F264" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G264">
         <v>142</v>
@@ -17958,7 +17955,7 @@
         <v>114</v>
       </c>
       <c r="U264" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="265" spans="1:21" x14ac:dyDescent="0.35">
@@ -17978,7 +17975,7 @@
         <v>0.55486111111111114</v>
       </c>
       <c r="F265" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G265">
         <v>142</v>
@@ -18023,7 +18020,7 @@
         <v>114</v>
       </c>
       <c r="U265" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="266" spans="1:21" x14ac:dyDescent="0.35">
@@ -18043,7 +18040,7 @@
         <v>0.55486111111111114</v>
       </c>
       <c r="F266" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G266">
         <v>143</v>
@@ -18088,7 +18085,7 @@
         <v>114</v>
       </c>
       <c r="U266" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="267" spans="1:21" x14ac:dyDescent="0.35">
@@ -18108,7 +18105,7 @@
         <v>0.55486111111111114</v>
       </c>
       <c r="F267" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G267">
         <v>144</v>
@@ -18153,7 +18150,7 @@
         <v>114</v>
       </c>
       <c r="U267" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="268" spans="1:21" x14ac:dyDescent="0.35">
@@ -18173,7 +18170,7 @@
         <v>0.66249999999999998</v>
       </c>
       <c r="F268" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G268">
         <v>146</v>
@@ -18238,7 +18235,7 @@
         <v>0.66249999999999998</v>
       </c>
       <c r="F269" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G269">
         <v>147</v>
@@ -18303,7 +18300,7 @@
         <v>0.66249999999999998</v>
       </c>
       <c r="F270" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G270">
         <v>148</v>
@@ -18368,7 +18365,7 @@
         <v>0.66249999999999998</v>
       </c>
       <c r="F271" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G271">
         <v>149</v>
@@ -18433,7 +18430,7 @@
         <v>0.66249999999999998</v>
       </c>
       <c r="F272" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G272">
         <v>150</v>
@@ -18498,7 +18495,7 @@
         <v>0.66249999999999998</v>
       </c>
       <c r="F273" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G273">
         <v>150</v>
@@ -18563,7 +18560,7 @@
         <v>0.66249999999999998</v>
       </c>
       <c r="F274" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G274">
         <v>153</v>
@@ -18628,7 +18625,7 @@
         <v>0.66249999999999998</v>
       </c>
       <c r="F275" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G275">
         <v>153</v>
@@ -18693,7 +18690,7 @@
         <v>0.51388888888888895</v>
       </c>
       <c r="F276" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G276">
         <v>155</v>
@@ -18738,7 +18735,7 @@
         <v>114</v>
       </c>
       <c r="U276" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="277" spans="1:21" x14ac:dyDescent="0.35">
@@ -18758,7 +18755,7 @@
         <v>0.51388888888888895</v>
       </c>
       <c r="F277" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G277">
         <v>155</v>
@@ -18803,7 +18800,7 @@
         <v>114</v>
       </c>
       <c r="U277" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="278" spans="1:21" x14ac:dyDescent="0.35">
@@ -18823,7 +18820,7 @@
         <v>0.51388888888888895</v>
       </c>
       <c r="F278" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G278">
         <v>155</v>
@@ -18868,7 +18865,7 @@
         <v>114</v>
       </c>
       <c r="U278" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="279" spans="1:21" x14ac:dyDescent="0.35">
@@ -18888,7 +18885,7 @@
         <v>0.51388888888888895</v>
       </c>
       <c r="F279" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G279">
         <v>156</v>
@@ -18933,7 +18930,7 @@
         <v>114</v>
       </c>
       <c r="U279" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="280" spans="1:21" x14ac:dyDescent="0.35">
@@ -18953,7 +18950,7 @@
         <v>0.51388888888888895</v>
       </c>
       <c r="F280" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G280">
         <v>157</v>
@@ -18998,7 +18995,7 @@
         <v>114</v>
       </c>
       <c r="U280" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="281" spans="1:21" x14ac:dyDescent="0.35">
@@ -19018,7 +19015,7 @@
         <v>0.51388888888888895</v>
       </c>
       <c r="F281" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G281">
         <v>158</v>
@@ -19063,7 +19060,7 @@
         <v>114</v>
       </c>
       <c r="U281" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="282" spans="1:21" x14ac:dyDescent="0.35">
@@ -19083,7 +19080,7 @@
         <v>0.51388888888888895</v>
       </c>
       <c r="F282" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G282">
         <v>159</v>
@@ -19128,7 +19125,7 @@
         <v>114</v>
       </c>
       <c r="U282" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="283" spans="1:21" x14ac:dyDescent="0.35">
@@ -19148,7 +19145,7 @@
         <v>0.51388888888888895</v>
       </c>
       <c r="F283" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G283">
         <v>159</v>
@@ -19193,7 +19190,7 @@
         <v>114</v>
       </c>
       <c r="U283" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="284" spans="1:21" x14ac:dyDescent="0.35">
@@ -19213,7 +19210,7 @@
         <v>0.51388888888888895</v>
       </c>
       <c r="F284" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G284">
         <v>161</v>
@@ -19258,7 +19255,7 @@
         <v>114</v>
       </c>
       <c r="U284" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="285" spans="1:21" x14ac:dyDescent="0.35">
@@ -19278,7 +19275,7 @@
         <v>0.51388888888888895</v>
       </c>
       <c r="F285" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G285">
         <v>162</v>
@@ -19323,7 +19320,7 @@
         <v>114</v>
       </c>
       <c r="U285" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="286" spans="1:21" x14ac:dyDescent="0.35">
@@ -19343,7 +19340,7 @@
         <v>0.51388888888888895</v>
       </c>
       <c r="F286" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G286">
         <v>163</v>
@@ -19388,7 +19385,7 @@
         <v>114</v>
       </c>
       <c r="U286" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="287" spans="1:21" x14ac:dyDescent="0.35">
@@ -19408,7 +19405,7 @@
         <v>0.51388888888888895</v>
       </c>
       <c r="F287" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G287">
         <v>163</v>
@@ -19453,7 +19450,7 @@
         <v>114</v>
       </c>
       <c r="U287" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="288" spans="1:21" x14ac:dyDescent="0.35">
@@ -19473,7 +19470,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="F288" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G288">
         <v>165</v>
@@ -19518,7 +19515,7 @@
         <v>114</v>
       </c>
       <c r="U288" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="289" spans="1:21" x14ac:dyDescent="0.35">
@@ -19538,7 +19535,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="F289" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G289">
         <v>166</v>
@@ -19583,7 +19580,7 @@
         <v>114</v>
       </c>
       <c r="U289" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="290" spans="1:21" x14ac:dyDescent="0.35">
@@ -19603,7 +19600,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="F290" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G290">
         <v>167</v>
@@ -19648,7 +19645,7 @@
         <v>114</v>
       </c>
       <c r="U290" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="291" spans="1:21" x14ac:dyDescent="0.35">
@@ -19668,7 +19665,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="F291" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G291">
         <v>168</v>
@@ -19713,7 +19710,7 @@
         <v>114</v>
       </c>
       <c r="U291" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="292" spans="1:21" x14ac:dyDescent="0.35">
@@ -19733,7 +19730,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="F292" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G292">
         <v>169</v>
@@ -19778,7 +19775,7 @@
         <v>114</v>
       </c>
       <c r="U292" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="293" spans="1:21" x14ac:dyDescent="0.35">
@@ -19798,7 +19795,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="F293" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G293">
         <v>170</v>
@@ -19843,7 +19840,7 @@
         <v>114</v>
       </c>
       <c r="U293" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="294" spans="1:21" x14ac:dyDescent="0.35">
@@ -19863,7 +19860,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="F294" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G294">
         <v>170</v>
@@ -19908,7 +19905,7 @@
         <v>114</v>
       </c>
       <c r="U294" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="295" spans="1:21" x14ac:dyDescent="0.35">
@@ -19928,7 +19925,7 @@
         <v>0.48749999999999999</v>
       </c>
       <c r="F295" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G295">
         <v>174</v>
@@ -19993,7 +19990,7 @@
         <v>0.48749999999999999</v>
       </c>
       <c r="F296" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G296">
         <v>174</v>
@@ -20058,7 +20055,7 @@
         <v>0.48749999999999999</v>
       </c>
       <c r="F297" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G297">
         <v>174</v>
@@ -20123,7 +20120,7 @@
         <v>0.48749999999999999</v>
       </c>
       <c r="F298" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G298">
         <v>175</v>
@@ -20188,7 +20185,7 @@
         <v>0.48749999999999999</v>
       </c>
       <c r="F299" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G299">
         <v>176</v>
@@ -20253,7 +20250,7 @@
         <v>0.48749999999999999</v>
       </c>
       <c r="F300" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G300">
         <v>176</v>
@@ -20318,7 +20315,7 @@
         <v>0.48749999999999999</v>
       </c>
       <c r="F301" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G301">
         <v>177</v>
@@ -20383,7 +20380,7 @@
         <v>0.48749999999999999</v>
       </c>
       <c r="F302" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G302">
         <v>178</v>
@@ -20448,7 +20445,7 @@
         <v>0.48749999999999999</v>
       </c>
       <c r="F303" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G303">
         <v>179</v>
@@ -20513,7 +20510,7 @@
         <v>0.48749999999999999</v>
       </c>
       <c r="F304" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G304">
         <v>179</v>
@@ -20578,7 +20575,7 @@
         <v>15</v>
       </c>
       <c r="F305" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G305">
         <v>189</v>
@@ -20643,7 +20640,7 @@
         <v>15</v>
       </c>
       <c r="F306" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G306">
         <v>190</v>
@@ -20708,7 +20705,7 @@
         <v>15</v>
       </c>
       <c r="F307" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G307">
         <v>191</v>
@@ -20773,7 +20770,7 @@
         <v>15</v>
       </c>
       <c r="F308" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G308">
         <v>192</v>
@@ -20838,7 +20835,7 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="F309" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G309">
         <v>193</v>
@@ -20903,7 +20900,7 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="F310" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G310">
         <v>194</v>
@@ -20968,7 +20965,7 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="F311" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G311">
         <v>195</v>
@@ -21033,7 +21030,7 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="F312" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G312">
         <v>195</v>
@@ -21098,7 +21095,7 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="F313" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G313">
         <v>196</v>
@@ -21163,7 +21160,7 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="F314" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G314">
         <v>197</v>
@@ -21228,7 +21225,7 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="F315" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G315">
         <v>198</v>
@@ -21293,7 +21290,7 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="F316" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G316">
         <v>198</v>
@@ -21358,7 +21355,7 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="F317" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G317">
         <v>199</v>
@@ -21423,7 +21420,7 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="F318" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G318">
         <v>200</v>
@@ -21488,7 +21485,7 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="F319" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G319">
         <v>200</v>
@@ -21553,7 +21550,7 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="F320" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G320">
         <v>201</v>
@@ -21618,7 +21615,7 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="F321" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G321">
         <v>203</v>
@@ -21683,7 +21680,7 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="F322" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G322">
         <v>203</v>
@@ -21748,7 +21745,7 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="F323" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G323">
         <v>204</v>
@@ -21813,7 +21810,7 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="F324" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G324">
         <v>204</v>
@@ -21878,7 +21875,7 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="F325" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G325">
         <v>204</v>
@@ -21943,7 +21940,7 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="F326" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G326">
         <v>205</v>
@@ -22008,7 +22005,7 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="F327" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G327">
         <v>205</v>
@@ -22073,7 +22070,7 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="F328" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G328">
         <v>205</v>
@@ -22138,7 +22135,7 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="F329" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G329">
         <v>205</v>
@@ -22203,7 +22200,7 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="F330" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G330">
         <v>206</v>
@@ -22268,7 +22265,7 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="F331" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G331">
         <v>206</v>
@@ -22333,7 +22330,7 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="F332" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G332">
         <v>206</v>
@@ -22398,7 +22395,7 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="F333" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G333">
         <v>207</v>
@@ -22463,7 +22460,7 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="F334" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G334">
         <v>207</v>
@@ -22528,7 +22525,7 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="F335" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G335">
         <v>207</v>
@@ -22593,7 +22590,7 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="F336" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G336">
         <v>207</v>
@@ -22658,7 +22655,7 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="F337" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G337">
         <v>208</v>
@@ -22723,7 +22720,7 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="F338" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G338">
         <v>208</v>
@@ -22788,7 +22785,7 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="F339" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G339">
         <v>208</v>
@@ -22853,7 +22850,7 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="F340" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G340">
         <v>208</v>
@@ -22918,7 +22915,7 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="F341" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G341">
         <v>209</v>
@@ -22983,7 +22980,7 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="F342" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G342">
         <v>209</v>
@@ -23048,7 +23045,7 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="F343" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G343">
         <v>209</v>
@@ -23113,7 +23110,7 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="F344" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G344">
         <v>209</v>
@@ -23178,7 +23175,7 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="F345" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G345">
         <v>209</v>
@@ -23243,7 +23240,7 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="F346" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G346">
         <v>209</v>
@@ -23308,7 +23305,7 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="F347" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G347">
         <v>209</v>
@@ -23373,7 +23370,7 @@
         <v>0.48402777777777778</v>
       </c>
       <c r="F348" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G348">
         <v>210</v>
@@ -23418,7 +23415,7 @@
         <v>144</v>
       </c>
       <c r="U348" t="s">
-        <v>145</v>
+        <v>220</v>
       </c>
     </row>
     <row r="349" spans="1:21" x14ac:dyDescent="0.35">
@@ -23438,7 +23435,7 @@
         <v>0.48402777777777778</v>
       </c>
       <c r="F349" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G349">
         <v>211</v>
@@ -23483,7 +23480,7 @@
         <v>144</v>
       </c>
       <c r="U349" t="s">
-        <v>145</v>
+        <v>220</v>
       </c>
     </row>
     <row r="350" spans="1:21" x14ac:dyDescent="0.35">
@@ -23503,7 +23500,7 @@
         <v>0.48402777777777778</v>
       </c>
       <c r="F350" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G350">
         <v>212</v>
@@ -23548,7 +23545,7 @@
         <v>144</v>
       </c>
       <c r="U350" t="s">
-        <v>145</v>
+        <v>220</v>
       </c>
     </row>
     <row r="351" spans="1:21" x14ac:dyDescent="0.35">
@@ -23568,7 +23565,7 @@
         <v>0.48402777777777778</v>
       </c>
       <c r="F351" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G351">
         <v>212</v>
@@ -23613,7 +23610,7 @@
         <v>144</v>
       </c>
       <c r="U351" t="s">
-        <v>145</v>
+        <v>220</v>
       </c>
     </row>
     <row r="352" spans="1:21" x14ac:dyDescent="0.35">
@@ -23633,7 +23630,7 @@
         <v>0.48402777777777778</v>
       </c>
       <c r="F352" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G352">
         <v>213</v>
@@ -23678,7 +23675,7 @@
         <v>144</v>
       </c>
       <c r="U352" t="s">
-        <v>145</v>
+        <v>220</v>
       </c>
     </row>
     <row r="353" spans="1:21" x14ac:dyDescent="0.35">
@@ -23698,7 +23695,7 @@
         <v>0.48402777777777778</v>
       </c>
       <c r="F353" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G353">
         <v>214</v>
@@ -23743,7 +23740,7 @@
         <v>144</v>
       </c>
       <c r="U353" t="s">
-        <v>145</v>
+        <v>220</v>
       </c>
     </row>
     <row r="354" spans="1:21" x14ac:dyDescent="0.35">
@@ -23763,7 +23760,7 @@
         <v>0.48402777777777778</v>
       </c>
       <c r="F354" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G354">
         <v>215</v>
@@ -23808,7 +23805,7 @@
         <v>144</v>
       </c>
       <c r="U354" t="s">
-        <v>145</v>
+        <v>220</v>
       </c>
     </row>
     <row r="355" spans="1:21" x14ac:dyDescent="0.35">
@@ -23828,7 +23825,7 @@
         <v>0.48402777777777778</v>
       </c>
       <c r="F355" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G355">
         <v>215</v>
@@ -23873,7 +23870,7 @@
         <v>144</v>
       </c>
       <c r="U355" t="s">
-        <v>145</v>
+        <v>220</v>
       </c>
     </row>
     <row r="356" spans="1:21" x14ac:dyDescent="0.35">
@@ -23893,7 +23890,7 @@
         <v>0.48402777777777778</v>
       </c>
       <c r="F356" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G356">
         <v>216</v>
@@ -23938,7 +23935,7 @@
         <v>144</v>
       </c>
       <c r="U356" t="s">
-        <v>145</v>
+        <v>220</v>
       </c>
     </row>
     <row r="357" spans="1:21" x14ac:dyDescent="0.35">
@@ -23958,7 +23955,7 @@
         <v>0.48402777777777778</v>
       </c>
       <c r="F357" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G357">
         <v>216</v>
@@ -24003,7 +24000,7 @@
         <v>144</v>
       </c>
       <c r="U357" t="s">
-        <v>145</v>
+        <v>220</v>
       </c>
     </row>
     <row r="358" spans="1:21" x14ac:dyDescent="0.35">
@@ -24023,7 +24020,7 @@
         <v>0.48402777777777778</v>
       </c>
       <c r="F358" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G358">
         <v>217</v>
@@ -24068,7 +24065,7 @@
         <v>144</v>
       </c>
       <c r="U358" t="s">
-        <v>145</v>
+        <v>220</v>
       </c>
     </row>
     <row r="359" spans="1:21" x14ac:dyDescent="0.35">
@@ -24088,7 +24085,7 @@
         <v>0.48402777777777778</v>
       </c>
       <c r="F359" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G359">
         <v>217</v>
@@ -24133,7 +24130,7 @@
         <v>144</v>
       </c>
       <c r="U359" t="s">
-        <v>145</v>
+        <v>220</v>
       </c>
     </row>
     <row r="360" spans="1:21" x14ac:dyDescent="0.35">
@@ -24153,7 +24150,7 @@
         <v>0.48402777777777778</v>
       </c>
       <c r="F360" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G360">
         <v>218</v>
@@ -24198,7 +24195,7 @@
         <v>144</v>
       </c>
       <c r="U360" t="s">
-        <v>145</v>
+        <v>220</v>
       </c>
     </row>
     <row r="361" spans="1:21" x14ac:dyDescent="0.35">
@@ -24218,7 +24215,7 @@
         <v>0.48402777777777778</v>
       </c>
       <c r="F361" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G361">
         <v>218</v>
@@ -24263,7 +24260,7 @@
         <v>144</v>
       </c>
       <c r="U361" t="s">
-        <v>145</v>
+        <v>220</v>
       </c>
     </row>
     <row r="362" spans="1:21" x14ac:dyDescent="0.35">
@@ -24283,7 +24280,7 @@
         <v>0.48402777777777778</v>
       </c>
       <c r="F362" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G362">
         <v>219</v>
@@ -24328,7 +24325,7 @@
         <v>144</v>
       </c>
       <c r="U362" t="s">
-        <v>145</v>
+        <v>220</v>
       </c>
     </row>
     <row r="363" spans="1:21" x14ac:dyDescent="0.35">
@@ -24348,7 +24345,7 @@
         <v>0.48402777777777778</v>
       </c>
       <c r="F363" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G363">
         <v>219</v>
@@ -24393,7 +24390,7 @@
         <v>144</v>
       </c>
       <c r="U363" t="s">
-        <v>145</v>
+        <v>220</v>
       </c>
     </row>
     <row r="364" spans="1:21" x14ac:dyDescent="0.35">
@@ -24413,7 +24410,7 @@
         <v>0.48402777777777778</v>
       </c>
       <c r="F364" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G364">
         <v>219</v>
@@ -24458,7 +24455,7 @@
         <v>144</v>
       </c>
       <c r="U364" t="s">
-        <v>145</v>
+        <v>220</v>
       </c>
     </row>
     <row r="365" spans="1:21" x14ac:dyDescent="0.35">
@@ -24478,7 +24475,7 @@
         <v>0.48402777777777778</v>
       </c>
       <c r="F365" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G365">
         <v>220</v>
@@ -24523,7 +24520,7 @@
         <v>144</v>
       </c>
       <c r="U365" t="s">
-        <v>145</v>
+        <v>220</v>
       </c>
     </row>
     <row r="366" spans="1:21" x14ac:dyDescent="0.35">
@@ -24543,7 +24540,7 @@
         <v>0.48402777777777778</v>
       </c>
       <c r="F366" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G366">
         <v>220</v>
@@ -24588,7 +24585,7 @@
         <v>144</v>
       </c>
       <c r="U366" t="s">
-        <v>145</v>
+        <v>220</v>
       </c>
     </row>
     <row r="367" spans="1:21" x14ac:dyDescent="0.35">
@@ -24608,7 +24605,7 @@
         <v>0.48402777777777778</v>
       </c>
       <c r="F367" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G367">
         <v>221</v>
@@ -24653,7 +24650,7 @@
         <v>144</v>
       </c>
       <c r="U367" t="s">
-        <v>145</v>
+        <v>220</v>
       </c>
     </row>
     <row r="368" spans="1:21" x14ac:dyDescent="0.35">
@@ -24673,7 +24670,7 @@
         <v>0.48402777777777778</v>
       </c>
       <c r="F368" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G368">
         <v>221</v>
@@ -24718,7 +24715,7 @@
         <v>144</v>
       </c>
       <c r="U368" t="s">
-        <v>145</v>
+        <v>220</v>
       </c>
     </row>
     <row r="369" spans="1:21" x14ac:dyDescent="0.35">
@@ -24738,7 +24735,7 @@
         <v>0.48402777777777778</v>
       </c>
       <c r="F369" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G369">
         <v>222</v>
@@ -24783,7 +24780,7 @@
         <v>144</v>
       </c>
       <c r="U369" t="s">
-        <v>145</v>
+        <v>220</v>
       </c>
     </row>
     <row r="370" spans="1:21" x14ac:dyDescent="0.35">
@@ -24803,7 +24800,7 @@
         <v>0.48402777777777778</v>
       </c>
       <c r="F370" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G370">
         <v>223</v>
@@ -24848,7 +24845,7 @@
         <v>144</v>
       </c>
       <c r="U370" t="s">
-        <v>145</v>
+        <v>220</v>
       </c>
     </row>
     <row r="371" spans="1:21" x14ac:dyDescent="0.35">
@@ -24868,7 +24865,7 @@
         <v>0.48402777777777778</v>
       </c>
       <c r="F371" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G371">
         <v>223</v>
@@ -24913,7 +24910,7 @@
         <v>144</v>
       </c>
       <c r="U371" t="s">
-        <v>145</v>
+        <v>220</v>
       </c>
     </row>
     <row r="372" spans="1:21" x14ac:dyDescent="0.35">
@@ -24933,7 +24930,7 @@
         <v>0.48402777777777778</v>
       </c>
       <c r="F372" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G372">
         <v>224</v>
@@ -24978,7 +24975,7 @@
         <v>144</v>
       </c>
       <c r="U372" t="s">
-        <v>145</v>
+        <v>220</v>
       </c>
     </row>
     <row r="373" spans="1:21" x14ac:dyDescent="0.35">
@@ -24998,7 +24995,7 @@
         <v>0.48402777777777778</v>
       </c>
       <c r="F373" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G373">
         <v>225</v>
@@ -25043,7 +25040,7 @@
         <v>144</v>
       </c>
       <c r="U373" t="s">
-        <v>145</v>
+        <v>220</v>
       </c>
     </row>
     <row r="374" spans="1:21" x14ac:dyDescent="0.35">
@@ -25063,7 +25060,7 @@
         <v>0.48402777777777778</v>
       </c>
       <c r="F374" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G374">
         <v>225</v>
@@ -25108,7 +25105,7 @@
         <v>144</v>
       </c>
       <c r="U374" t="s">
-        <v>145</v>
+        <v>220</v>
       </c>
     </row>
     <row r="375" spans="1:21" x14ac:dyDescent="0.35">
@@ -25128,7 +25125,7 @@
         <v>0.48402777777777778</v>
       </c>
       <c r="F375" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G375">
         <v>226</v>
@@ -25173,7 +25170,7 @@
         <v>144</v>
       </c>
       <c r="U375" t="s">
-        <v>145</v>
+        <v>220</v>
       </c>
     </row>
     <row r="376" spans="1:21" x14ac:dyDescent="0.35">
@@ -25193,7 +25190,7 @@
         <v>0.48402777777777778</v>
       </c>
       <c r="F376" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G376">
         <v>226</v>
@@ -25238,7 +25235,7 @@
         <v>144</v>
       </c>
       <c r="U376" t="s">
-        <v>145</v>
+        <v>220</v>
       </c>
     </row>
     <row r="377" spans="1:21" x14ac:dyDescent="0.35">
@@ -25258,7 +25255,7 @@
         <v>0.48402777777777778</v>
       </c>
       <c r="F377" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G377">
         <v>227</v>
@@ -25303,7 +25300,7 @@
         <v>144</v>
       </c>
       <c r="U377" t="s">
-        <v>145</v>
+        <v>220</v>
       </c>
     </row>
     <row r="378" spans="1:21" x14ac:dyDescent="0.35">
@@ -25323,7 +25320,7 @@
         <v>0.48402777777777778</v>
       </c>
       <c r="F378" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G378">
         <v>228</v>
@@ -25368,7 +25365,7 @@
         <v>144</v>
       </c>
       <c r="U378" t="s">
-        <v>145</v>
+        <v>220</v>
       </c>
     </row>
     <row r="379" spans="1:21" x14ac:dyDescent="0.35">
@@ -25388,7 +25385,7 @@
         <v>0.48402777777777778</v>
       </c>
       <c r="F379" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G379">
         <v>229</v>
@@ -25433,7 +25430,7 @@
         <v>144</v>
       </c>
       <c r="U379" t="s">
-        <v>145</v>
+        <v>220</v>
       </c>
     </row>
     <row r="380" spans="1:21" x14ac:dyDescent="0.35">
@@ -25453,7 +25450,7 @@
         <v>0.48402777777777778</v>
       </c>
       <c r="F380" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G380">
         <v>230</v>
@@ -25498,7 +25495,7 @@
         <v>144</v>
       </c>
       <c r="U380" t="s">
-        <v>145</v>
+        <v>220</v>
       </c>
     </row>
     <row r="381" spans="1:21" x14ac:dyDescent="0.35">
@@ -25518,7 +25515,7 @@
         <v>0.48402777777777778</v>
       </c>
       <c r="F381" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G381">
         <v>230</v>
@@ -25563,7 +25560,7 @@
         <v>144</v>
       </c>
       <c r="U381" t="s">
-        <v>145</v>
+        <v>220</v>
       </c>
     </row>
     <row r="382" spans="1:21" x14ac:dyDescent="0.35">
@@ -25583,7 +25580,7 @@
         <v>0.48402777777777778</v>
       </c>
       <c r="F382" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G382">
         <v>231</v>
@@ -25628,7 +25625,7 @@
         <v>144</v>
       </c>
       <c r="U382" t="s">
-        <v>145</v>
+        <v>220</v>
       </c>
     </row>
     <row r="383" spans="1:21" x14ac:dyDescent="0.35">
@@ -25648,7 +25645,7 @@
         <v>0.48402777777777778</v>
       </c>
       <c r="F383" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G383">
         <v>232</v>
@@ -25693,7 +25690,7 @@
         <v>144</v>
       </c>
       <c r="U383" t="s">
-        <v>145</v>
+        <v>220</v>
       </c>
     </row>
     <row r="384" spans="1:21" x14ac:dyDescent="0.35">
@@ -25713,7 +25710,7 @@
         <v>0.48402777777777778</v>
       </c>
       <c r="F384" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G384">
         <v>232</v>
@@ -25758,7 +25755,7 @@
         <v>144</v>
       </c>
       <c r="U384" t="s">
-        <v>145</v>
+        <v>220</v>
       </c>
     </row>
     <row r="385" spans="1:21" x14ac:dyDescent="0.35">
@@ -25778,7 +25775,7 @@
         <v>0.48402777777777778</v>
       </c>
       <c r="F385" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G385">
         <v>233</v>
@@ -25823,7 +25820,7 @@
         <v>144</v>
       </c>
       <c r="U385" t="s">
-        <v>145</v>
+        <v>220</v>
       </c>
     </row>
     <row r="386" spans="1:21" x14ac:dyDescent="0.35">
@@ -25843,7 +25840,7 @@
         <v>0.48402777777777778</v>
       </c>
       <c r="F386" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G386">
         <v>240</v>
@@ -25888,7 +25885,7 @@
         <v>144</v>
       </c>
       <c r="U386" t="s">
-        <v>145</v>
+        <v>220</v>
       </c>
     </row>
     <row r="387" spans="1:21" x14ac:dyDescent="0.35">
@@ -25908,7 +25905,7 @@
         <v>0.48402777777777778</v>
       </c>
       <c r="F387" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G387">
         <v>240</v>
@@ -25953,7 +25950,7 @@
         <v>144</v>
       </c>
       <c r="U387" t="s">
-        <v>145</v>
+        <v>220</v>
       </c>
     </row>
     <row r="388" spans="1:21" x14ac:dyDescent="0.35">
@@ -25973,7 +25970,7 @@
         <v>0.48402777777777778</v>
       </c>
       <c r="F388" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G388">
         <v>240</v>
@@ -26018,7 +26015,7 @@
         <v>144</v>
       </c>
       <c r="U388" t="s">
-        <v>145</v>
+        <v>220</v>
       </c>
     </row>
     <row r="389" spans="1:21" x14ac:dyDescent="0.35">
@@ -26038,7 +26035,7 @@
         <v>0.52708333333333335</v>
       </c>
       <c r="F389" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G389">
         <v>236</v>
@@ -26083,7 +26080,7 @@
         <v>114</v>
       </c>
       <c r="U389" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="390" spans="1:21" x14ac:dyDescent="0.35">
@@ -26103,7 +26100,7 @@
         <v>0.52708333333333335</v>
       </c>
       <c r="F390" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G390">
         <v>237</v>
@@ -26148,7 +26145,7 @@
         <v>114</v>
       </c>
       <c r="U390" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="391" spans="1:21" x14ac:dyDescent="0.35">
@@ -26168,7 +26165,7 @@
         <v>0.52708333333333335</v>
       </c>
       <c r="F391" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G391">
         <v>238</v>
@@ -26213,7 +26210,7 @@
         <v>114</v>
       </c>
       <c r="U391" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="392" spans="1:21" x14ac:dyDescent="0.35">
@@ -26233,7 +26230,7 @@
         <v>0.52708333333333335</v>
       </c>
       <c r="F392" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G392">
         <v>239</v>
@@ -26278,7 +26275,7 @@
         <v>114</v>
       </c>
       <c r="U392" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="393" spans="1:21" x14ac:dyDescent="0.35">
@@ -26298,7 +26295,7 @@
         <v>0.52708333333333335</v>
       </c>
       <c r="F393" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G393">
         <v>240</v>
@@ -26343,7 +26340,7 @@
         <v>114</v>
       </c>
       <c r="U393" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="394" spans="1:21" x14ac:dyDescent="0.35">
@@ -26363,7 +26360,7 @@
         <v>0.52708333333333335</v>
       </c>
       <c r="F394" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G394">
         <v>242</v>
@@ -26408,7 +26405,7 @@
         <v>114</v>
       </c>
       <c r="U394" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="395" spans="1:21" x14ac:dyDescent="0.35">
@@ -26428,7 +26425,7 @@
         <v>0.52708333333333335</v>
       </c>
       <c r="F395" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G395">
         <v>243</v>
@@ -26440,7 +26437,7 @@
         <v>-121.81724</v>
       </c>
       <c r="J395" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K395">
         <v>2</v>
@@ -26473,7 +26470,7 @@
         <v>114</v>
       </c>
       <c r="U395" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="396" spans="1:21" x14ac:dyDescent="0.35">
@@ -26493,7 +26490,7 @@
         <v>0.52708333333333335</v>
       </c>
       <c r="F396" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G396">
         <v>244</v>
@@ -26538,7 +26535,7 @@
         <v>114</v>
       </c>
       <c r="U396" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="397" spans="1:21" x14ac:dyDescent="0.35">
@@ -26558,7 +26555,7 @@
         <v>0.52708333333333335</v>
       </c>
       <c r="F397" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G397">
         <v>245</v>
@@ -26570,13 +26567,13 @@
         <v>-121.81711</v>
       </c>
       <c r="J397" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K397">
         <v>12</v>
       </c>
       <c r="L397" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M397">
         <v>1.4</v>
@@ -26603,7 +26600,7 @@
         <v>114</v>
       </c>
       <c r="U397" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="398" spans="1:21" x14ac:dyDescent="0.35">
@@ -26623,7 +26620,7 @@
         <v>0.52708333333333335</v>
       </c>
       <c r="F398" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G398">
         <v>245</v>
@@ -26635,7 +26632,7 @@
         <v>-121.81711</v>
       </c>
       <c r="J398" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K398">
         <v>18</v>
@@ -26668,7 +26665,7 @@
         <v>114</v>
       </c>
       <c r="U398" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="399" spans="1:21" x14ac:dyDescent="0.35">
@@ -26688,7 +26685,7 @@
         <v>0.52708333333333335</v>
       </c>
       <c r="F399" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G399">
         <v>246</v>
@@ -26700,7 +26697,7 @@
         <v>-121.817548</v>
       </c>
       <c r="J399" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K399" t="s">
         <v>15</v>
@@ -26733,7 +26730,7 @@
         <v>114</v>
       </c>
       <c r="U399" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="400" spans="1:21" x14ac:dyDescent="0.35">
@@ -26753,7 +26750,7 @@
         <v>0.52708333333333335</v>
       </c>
       <c r="F400" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G400">
         <v>247</v>
@@ -26798,7 +26795,7 @@
         <v>114</v>
       </c>
       <c r="U400" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="401" spans="1:21" x14ac:dyDescent="0.35">
@@ -26818,7 +26815,7 @@
         <v>0.52708333333333335</v>
       </c>
       <c r="F401" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G401">
         <v>247</v>
@@ -26836,7 +26833,7 @@
         <v>5</v>
       </c>
       <c r="L401" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M401">
         <v>1.58</v>
@@ -26863,7 +26860,7 @@
         <v>114</v>
       </c>
       <c r="U401" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="402" spans="1:21" x14ac:dyDescent="0.35">
@@ -26883,7 +26880,7 @@
         <v>0.52708333333333335</v>
       </c>
       <c r="F402" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G402">
         <v>247</v>
@@ -26928,7 +26925,7 @@
         <v>114</v>
       </c>
       <c r="U402" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="403" spans="1:21" x14ac:dyDescent="0.35">
@@ -26948,7 +26945,7 @@
         <v>0.52708333333333335</v>
       </c>
       <c r="F403" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G403">
         <v>248</v>
@@ -26993,7 +26990,7 @@
         <v>114</v>
       </c>
       <c r="U403" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="404" spans="1:21" x14ac:dyDescent="0.35">
@@ -27013,7 +27010,7 @@
         <v>0.52708333333333335</v>
       </c>
       <c r="F404" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G404">
         <v>248</v>
@@ -27031,7 +27028,7 @@
         <v>2</v>
       </c>
       <c r="L404" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M404">
         <v>1.32</v>
@@ -27058,7 +27055,7 @@
         <v>114</v>
       </c>
       <c r="U404" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="405" spans="1:21" x14ac:dyDescent="0.35">
@@ -27078,7 +27075,7 @@
         <v>0.52708333333333335</v>
       </c>
       <c r="F405" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G405">
         <v>248</v>
@@ -27123,7 +27120,7 @@
         <v>114</v>
       </c>
       <c r="U405" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="406" spans="1:21" x14ac:dyDescent="0.35">
@@ -27143,7 +27140,7 @@
         <v>0.52708333333333335</v>
       </c>
       <c r="F406" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G406">
         <v>248</v>
@@ -27188,7 +27185,7 @@
         <v>114</v>
       </c>
       <c r="U406" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="407" spans="1:21" x14ac:dyDescent="0.35">
@@ -27208,7 +27205,7 @@
         <v>0.52708333333333335</v>
       </c>
       <c r="F407" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G407">
         <v>248</v>
@@ -27253,7 +27250,7 @@
         <v>114</v>
       </c>
       <c r="U407" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="408" spans="1:21" x14ac:dyDescent="0.35">
@@ -27273,7 +27270,7 @@
         <v>15</v>
       </c>
       <c r="F408" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G408">
         <v>250</v>
@@ -27318,7 +27315,7 @@
         <v>114</v>
       </c>
       <c r="U408" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="409" spans="1:21" x14ac:dyDescent="0.35">
@@ -27338,7 +27335,7 @@
         <v>15</v>
       </c>
       <c r="F409" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G409">
         <v>250</v>
@@ -27383,7 +27380,7 @@
         <v>114</v>
       </c>
       <c r="U409" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="410" spans="1:21" x14ac:dyDescent="0.35">
@@ -27403,7 +27400,7 @@
         <v>15</v>
       </c>
       <c r="F410" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G410">
         <v>251</v>
@@ -27448,7 +27445,7 @@
         <v>114</v>
       </c>
       <c r="U410" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="411" spans="1:21" x14ac:dyDescent="0.35">
@@ -27468,7 +27465,7 @@
         <v>15</v>
       </c>
       <c r="F411" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G411">
         <v>251</v>
@@ -27513,7 +27510,7 @@
         <v>114</v>
       </c>
       <c r="U411" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="412" spans="1:21" x14ac:dyDescent="0.35">
@@ -27533,7 +27530,7 @@
         <v>15</v>
       </c>
       <c r="F412" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G412">
         <v>252</v>
@@ -27578,7 +27575,7 @@
         <v>114</v>
       </c>
       <c r="U412" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="413" spans="1:21" x14ac:dyDescent="0.35">
@@ -27598,7 +27595,7 @@
         <v>15</v>
       </c>
       <c r="F413" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G413">
         <v>252</v>
@@ -27643,7 +27640,7 @@
         <v>114</v>
       </c>
       <c r="U413" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="414" spans="1:21" x14ac:dyDescent="0.35">
@@ -27663,7 +27660,7 @@
         <v>15</v>
       </c>
       <c r="F414" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G414">
         <v>256</v>
@@ -27708,7 +27705,7 @@
         <v>129</v>
       </c>
       <c r="U414" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="415" spans="1:21" x14ac:dyDescent="0.35">
@@ -27728,7 +27725,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="F415" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G415" s="4">
         <v>262</v>
@@ -27767,13 +27764,13 @@
         <v>0</v>
       </c>
       <c r="S415" t="s">
+        <v>211</v>
+      </c>
+      <c r="T415" t="s">
         <v>212</v>
       </c>
-      <c r="T415" t="s">
-        <v>213</v>
-      </c>
       <c r="U415" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="416" spans="1:21" x14ac:dyDescent="0.35">
@@ -27793,7 +27790,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="F416" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G416" s="4">
         <v>263</v>
@@ -27832,13 +27829,13 @@
         <v>0</v>
       </c>
       <c r="S416" t="s">
+        <v>211</v>
+      </c>
+      <c r="T416" t="s">
         <v>212</v>
       </c>
-      <c r="T416" t="s">
-        <v>213</v>
-      </c>
       <c r="U416" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="417" spans="1:21" x14ac:dyDescent="0.35">
@@ -27858,7 +27855,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="F417" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G417" s="4">
         <v>264</v>
@@ -27897,13 +27894,13 @@
         <v>0</v>
       </c>
       <c r="S417" t="s">
+        <v>211</v>
+      </c>
+      <c r="T417" t="s">
         <v>212</v>
       </c>
-      <c r="T417" t="s">
-        <v>213</v>
-      </c>
       <c r="U417" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="418" spans="1:21" x14ac:dyDescent="0.35">
@@ -27923,7 +27920,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="F418" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G418" s="4">
         <v>265</v>
@@ -27962,13 +27959,13 @@
         <v>0</v>
       </c>
       <c r="S418" t="s">
+        <v>211</v>
+      </c>
+      <c r="T418" t="s">
         <v>212</v>
       </c>
-      <c r="T418" t="s">
-        <v>213</v>
-      </c>
       <c r="U418" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="419" spans="1:21" x14ac:dyDescent="0.35">
@@ -27988,7 +27985,7 @@
         <v>0.53333333333333333</v>
       </c>
       <c r="F419" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G419" s="4">
         <v>266</v>
@@ -28027,13 +28024,13 @@
         <v>0</v>
       </c>
       <c r="S419" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="T419" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="U419" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
     </row>
     <row r="420" spans="1:21" x14ac:dyDescent="0.35">
@@ -28053,7 +28050,7 @@
         <v>0.53333333333333333</v>
       </c>
       <c r="F420" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G420" s="4">
         <v>267</v>
@@ -28092,13 +28089,13 @@
         <v>0</v>
       </c>
       <c r="S420" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="T420" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="U420" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
     </row>
     <row r="421" spans="1:21" x14ac:dyDescent="0.35">
@@ -28118,7 +28115,7 @@
         <v>0.53333333333333333</v>
       </c>
       <c r="F421" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G421" s="4">
         <v>269</v>
@@ -28157,13 +28154,13 @@
         <v>0</v>
       </c>
       <c r="S421" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="T421" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="U421" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
     </row>
     <row r="422" spans="1:21" x14ac:dyDescent="0.35">
@@ -28183,7 +28180,7 @@
         <v>0.53333333333333333</v>
       </c>
       <c r="F422" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G422" s="4">
         <v>271</v>
@@ -28222,13 +28219,13 @@
         <v>0</v>
       </c>
       <c r="S422" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="T422" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="U422" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
     </row>
     <row r="423" spans="1:21" x14ac:dyDescent="0.35">
@@ -28248,7 +28245,7 @@
         <v>0.50624999999999998</v>
       </c>
       <c r="F423" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G423" s="4">
         <v>274</v>
@@ -28287,13 +28284,13 @@
         <v>0</v>
       </c>
       <c r="S423" t="s">
+        <v>213</v>
+      </c>
+      <c r="T423" t="s">
         <v>214</v>
       </c>
-      <c r="T423" t="s">
-        <v>216</v>
-      </c>
       <c r="U423" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="424" spans="1:21" x14ac:dyDescent="0.35">
@@ -28313,7 +28310,7 @@
         <v>0.50624999999999998</v>
       </c>
       <c r="F424" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G424" s="4">
         <v>275</v>
@@ -28352,13 +28349,13 @@
         <v>0</v>
       </c>
       <c r="S424" t="s">
+        <v>213</v>
+      </c>
+      <c r="T424" t="s">
         <v>214</v>
       </c>
-      <c r="T424" t="s">
-        <v>216</v>
-      </c>
       <c r="U424" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="425" spans="1:21" x14ac:dyDescent="0.35">
@@ -28378,7 +28375,7 @@
         <v>0.50624999999999998</v>
       </c>
       <c r="F425" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G425" s="4">
         <v>276</v>
@@ -28417,13 +28414,13 @@
         <v>0</v>
       </c>
       <c r="S425" t="s">
+        <v>213</v>
+      </c>
+      <c r="T425" t="s">
         <v>214</v>
       </c>
-      <c r="T425" t="s">
-        <v>216</v>
-      </c>
       <c r="U425" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="426" spans="1:21" x14ac:dyDescent="0.35">
@@ -28443,7 +28440,7 @@
         <v>0.50624999999999998</v>
       </c>
       <c r="F426" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G426" s="4">
         <v>277</v>
@@ -28482,13 +28479,13 @@
         <v>0</v>
       </c>
       <c r="S426" t="s">
+        <v>213</v>
+      </c>
+      <c r="T426" t="s">
         <v>214</v>
       </c>
-      <c r="T426" t="s">
-        <v>216</v>
-      </c>
       <c r="U426" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="427" spans="1:21" x14ac:dyDescent="0.35">
@@ -28508,7 +28505,7 @@
         <v>0.50624999999999998</v>
       </c>
       <c r="F427" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G427" s="4">
         <v>278</v>
@@ -28547,13 +28544,13 @@
         <v>0</v>
       </c>
       <c r="S427" t="s">
+        <v>213</v>
+      </c>
+      <c r="T427" t="s">
         <v>214</v>
       </c>
-      <c r="T427" t="s">
-        <v>216</v>
-      </c>
       <c r="U427" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="428" spans="1:21" x14ac:dyDescent="0.35">
@@ -28573,7 +28570,7 @@
         <v>0.50624999999999998</v>
       </c>
       <c r="F428" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G428" s="4">
         <v>279</v>
@@ -28612,13 +28609,13 @@
         <v>0</v>
       </c>
       <c r="S428" t="s">
+        <v>213</v>
+      </c>
+      <c r="T428" t="s">
         <v>214</v>
       </c>
-      <c r="T428" t="s">
-        <v>216</v>
-      </c>
       <c r="U428" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="429" spans="1:21" x14ac:dyDescent="0.35">
@@ -28638,7 +28635,7 @@
         <v>0.50624999999999998</v>
       </c>
       <c r="F429" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G429" s="4">
         <v>280</v>
@@ -28677,13 +28674,13 @@
         <v>0</v>
       </c>
       <c r="S429" t="s">
+        <v>213</v>
+      </c>
+      <c r="T429" t="s">
         <v>214</v>
       </c>
-      <c r="T429" t="s">
-        <v>216</v>
-      </c>
       <c r="U429" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="430" spans="1:21" x14ac:dyDescent="0.35">
@@ -28703,7 +28700,7 @@
         <v>0.50624999999999998</v>
       </c>
       <c r="F430" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G430" s="4">
         <v>281</v>
@@ -28742,13 +28739,13 @@
         <v>0</v>
       </c>
       <c r="S430" t="s">
+        <v>213</v>
+      </c>
+      <c r="T430" t="s">
         <v>214</v>
       </c>
-      <c r="T430" t="s">
-        <v>216</v>
-      </c>
       <c r="U430" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="431" spans="1:21" x14ac:dyDescent="0.35">
@@ -28768,7 +28765,7 @@
         <v>0.50624999999999998</v>
       </c>
       <c r="F431" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G431" s="4">
         <v>282</v>
@@ -28807,13 +28804,13 @@
         <v>0</v>
       </c>
       <c r="S431" t="s">
+        <v>213</v>
+      </c>
+      <c r="T431" t="s">
         <v>214</v>
       </c>
-      <c r="T431" t="s">
-        <v>216</v>
-      </c>
       <c r="U431" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="432" spans="1:21" x14ac:dyDescent="0.35">
@@ -28833,7 +28830,7 @@
         <v>0.50624999999999998</v>
       </c>
       <c r="F432" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G432" s="4">
         <v>283</v>
@@ -28872,13 +28869,13 @@
         <v>0</v>
       </c>
       <c r="S432" t="s">
+        <v>213</v>
+      </c>
+      <c r="T432" t="s">
         <v>214</v>
       </c>
-      <c r="T432" t="s">
-        <v>216</v>
-      </c>
       <c r="U432" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="433" spans="1:21" x14ac:dyDescent="0.35">
@@ -28898,7 +28895,7 @@
         <v>0.50624999999999998</v>
       </c>
       <c r="F433" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G433" s="4">
         <v>284</v>
@@ -28937,13 +28934,13 @@
         <v>0</v>
       </c>
       <c r="S433" t="s">
+        <v>213</v>
+      </c>
+      <c r="T433" t="s">
         <v>214</v>
       </c>
-      <c r="T433" t="s">
-        <v>216</v>
-      </c>
       <c r="U433" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="434" spans="1:21" x14ac:dyDescent="0.35">
@@ -28963,7 +28960,7 @@
         <v>0.50624999999999998</v>
       </c>
       <c r="F434" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G434" s="4">
         <v>285</v>
@@ -29002,21 +28999,21 @@
         <v>0</v>
       </c>
       <c r="S434" t="s">
+        <v>213</v>
+      </c>
+      <c r="T434" t="s">
         <v>214</v>
       </c>
-      <c r="T434" t="s">
-        <v>216</v>
-      </c>
       <c r="U434" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="435" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B435" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C435" s="2">
         <v>44462</v>
@@ -29028,7 +29025,7 @@
         <v>0.42499999999999999</v>
       </c>
       <c r="F435" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G435" s="4">
         <v>300</v>
@@ -29067,21 +29064,21 @@
         <v>0</v>
       </c>
       <c r="S435" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="T435" t="s">
         <v>82</v>
       </c>
       <c r="U435" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="436" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B436" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C436" s="2">
         <v>44462</v>
@@ -29093,7 +29090,7 @@
         <v>0.42499999999999999</v>
       </c>
       <c r="F436" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G436" s="4">
         <v>301</v>
@@ -29132,21 +29129,21 @@
         <v>0</v>
       </c>
       <c r="S436" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="T436" t="s">
         <v>82</v>
       </c>
       <c r="U436" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="437" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B437" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C437" s="2">
         <v>44462</v>
@@ -29158,7 +29155,7 @@
         <v>0.42499999999999999</v>
       </c>
       <c r="F437" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G437" s="4">
         <v>302</v>
@@ -29197,21 +29194,21 @@
         <v>0</v>
       </c>
       <c r="S437" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="T437" t="s">
         <v>82</v>
       </c>
       <c r="U437" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="438" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B438" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C438" s="2">
         <v>44462</v>
@@ -29223,7 +29220,7 @@
         <v>0.42499999999999999</v>
       </c>
       <c r="F438" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G438" s="4">
         <v>303</v>
@@ -29262,13 +29259,13 @@
         <v>0</v>
       </c>
       <c r="S438" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="T438" t="s">
         <v>82</v>
       </c>
       <c r="U438" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="439" spans="1:21" x14ac:dyDescent="0.35">
@@ -29288,7 +29285,7 @@
         <v>0.49374999999999997</v>
       </c>
       <c r="F439" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G439" s="4">
         <v>313</v>
@@ -29327,13 +29324,13 @@
         <v>0</v>
       </c>
       <c r="S439" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="T439" t="s">
         <v>127</v>
       </c>
       <c r="U439" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="440" spans="1:21" x14ac:dyDescent="0.35">
@@ -29353,7 +29350,7 @@
         <v>0.49374999999999997</v>
       </c>
       <c r="F440" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G440" s="4">
         <v>314</v>
@@ -29392,13 +29389,13 @@
         <v>0</v>
       </c>
       <c r="S440" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="T440" t="s">
         <v>127</v>
       </c>
       <c r="U440" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="441" spans="1:21" x14ac:dyDescent="0.35">
@@ -29418,7 +29415,7 @@
         <v>0.49374999999999997</v>
       </c>
       <c r="F441" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G441" s="4">
         <v>315</v>
@@ -29457,13 +29454,13 @@
         <v>0</v>
       </c>
       <c r="S441" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="T441" t="s">
         <v>127</v>
       </c>
       <c r="U441" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="442" spans="1:21" x14ac:dyDescent="0.35">
@@ -29483,7 +29480,7 @@
         <v>0.49374999999999997</v>
       </c>
       <c r="F442" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G442" s="4">
         <v>316</v>
@@ -29522,13 +29519,13 @@
         <v>0</v>
       </c>
       <c r="S442" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="T442" t="s">
         <v>127</v>
       </c>
       <c r="U442" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="443" spans="1:21" x14ac:dyDescent="0.35">
@@ -29548,7 +29545,7 @@
         <v>0.49374999999999997</v>
       </c>
       <c r="F443" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G443" s="4">
         <v>317</v>
@@ -29587,13 +29584,13 @@
         <v>0</v>
       </c>
       <c r="S443" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="T443" t="s">
         <v>127</v>
       </c>
       <c r="U443" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="444" spans="1:21" x14ac:dyDescent="0.35">
@@ -29613,7 +29610,7 @@
         <v>0.49374999999999997</v>
       </c>
       <c r="F444" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G444" s="4">
         <v>318</v>
@@ -29652,13 +29649,13 @@
         <v>0</v>
       </c>
       <c r="S444" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="T444" t="s">
         <v>127</v>
       </c>
       <c r="U444" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="445" spans="1:21" x14ac:dyDescent="0.35">
@@ -29678,7 +29675,7 @@
         <v>0.49374999999999997</v>
       </c>
       <c r="F445" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G445" s="4">
         <v>319</v>
@@ -29717,13 +29714,13 @@
         <v>0</v>
       </c>
       <c r="S445" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="T445" t="s">
         <v>127</v>
       </c>
       <c r="U445" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="446" spans="1:21" x14ac:dyDescent="0.35">
@@ -29743,7 +29740,7 @@
         <v>0.59861111111111109</v>
       </c>
       <c r="F446" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G446" s="4">
         <v>322</v>
@@ -29782,13 +29779,13 @@
         <v>0</v>
       </c>
       <c r="S446" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="T446" t="s">
         <v>127</v>
       </c>
       <c r="U446" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="447" spans="1:21" x14ac:dyDescent="0.35">
@@ -29808,7 +29805,7 @@
         <v>0.59861111111111109</v>
       </c>
       <c r="F447" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G447" s="4">
         <v>323</v>
@@ -29847,13 +29844,13 @@
         <v>0</v>
       </c>
       <c r="S447" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="T447" t="s">
         <v>127</v>
       </c>
       <c r="U447" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="448" spans="1:21" x14ac:dyDescent="0.35">
@@ -29873,7 +29870,7 @@
         <v>0.59861111111111109</v>
       </c>
       <c r="F448" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G448" s="4">
         <v>324</v>
@@ -29912,13 +29909,13 @@
         <v>0</v>
       </c>
       <c r="S448" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="T448" t="s">
         <v>127</v>
       </c>
       <c r="U448" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="449" spans="1:21" x14ac:dyDescent="0.35">
@@ -29938,7 +29935,7 @@
         <v>0.59861111111111109</v>
       </c>
       <c r="F449" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G449" s="4">
         <v>325</v>
@@ -29977,13 +29974,13 @@
         <v>0</v>
       </c>
       <c r="S449" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="T449" t="s">
         <v>127</v>
       </c>
       <c r="U449" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="450" spans="1:21" x14ac:dyDescent="0.35">
@@ -30003,7 +30000,7 @@
         <v>0.59861111111111109</v>
       </c>
       <c r="F450" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G450" s="4">
         <v>325</v>
@@ -30042,13 +30039,13 @@
         <v>0</v>
       </c>
       <c r="S450" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="T450" t="s">
         <v>127</v>
       </c>
       <c r="U450" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="451" spans="1:21" x14ac:dyDescent="0.35">
@@ -30068,7 +30065,7 @@
         <v>0.59861111111111109</v>
       </c>
       <c r="F451" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G451" s="4">
         <v>326</v>
@@ -30107,13 +30104,13 @@
         <v>0</v>
       </c>
       <c r="S451" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="T451" t="s">
         <v>127</v>
       </c>
       <c r="U451" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="452" spans="1:21" x14ac:dyDescent="0.35">
@@ -30133,7 +30130,7 @@
         <v>0.59861111111111109</v>
       </c>
       <c r="F452" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G452" s="4">
         <v>326</v>
@@ -30172,13 +30169,13 @@
         <v>0</v>
       </c>
       <c r="S452" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="T452" t="s">
         <v>127</v>
       </c>
       <c r="U452" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="453" spans="1:21" x14ac:dyDescent="0.35">
@@ -30198,7 +30195,7 @@
         <v>0.59861111111111109</v>
       </c>
       <c r="F453" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G453" s="4">
         <v>326</v>
@@ -30237,13 +30234,13 @@
         <v>0</v>
       </c>
       <c r="S453" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="T453" t="s">
         <v>127</v>
       </c>
       <c r="U453" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="454" spans="1:21" x14ac:dyDescent="0.35">
@@ -30263,7 +30260,7 @@
         <v>0.59861111111111109</v>
       </c>
       <c r="F454" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G454" s="4">
         <v>327</v>
@@ -30302,13 +30299,13 @@
         <v>0</v>
       </c>
       <c r="S454" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="T454" t="s">
         <v>127</v>
       </c>
       <c r="U454" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="455" spans="1:21" x14ac:dyDescent="0.35">
@@ -30328,7 +30325,7 @@
         <v>0.59861111111111109</v>
       </c>
       <c r="F455" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G455" s="4">
         <v>327</v>
@@ -30367,13 +30364,13 @@
         <v>0</v>
       </c>
       <c r="S455" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="T455" t="s">
         <v>127</v>
       </c>
       <c r="U455" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="456" spans="1:21" x14ac:dyDescent="0.35">
@@ -30393,7 +30390,7 @@
         <v>0.59861111111111109</v>
       </c>
       <c r="F456" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G456" s="4">
         <v>327</v>
@@ -30432,13 +30429,13 @@
         <v>0</v>
       </c>
       <c r="S456" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="T456" t="s">
         <v>127</v>
       </c>
       <c r="U456" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="457" spans="1:21" x14ac:dyDescent="0.35">
@@ -30458,7 +30455,7 @@
         <v>0.59861111111111109</v>
       </c>
       <c r="F457" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G457" s="4">
         <v>328</v>
@@ -30497,13 +30494,13 @@
         <v>0</v>
       </c>
       <c r="S457" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="T457" t="s">
         <v>127</v>
       </c>
       <c r="U457" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="458" spans="1:21" x14ac:dyDescent="0.35">
@@ -30523,7 +30520,7 @@
         <v>0.59861111111111109</v>
       </c>
       <c r="F458" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G458" s="4">
         <v>328</v>
@@ -30562,13 +30559,13 @@
         <v>0</v>
       </c>
       <c r="S458" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="T458" t="s">
         <v>127</v>
       </c>
       <c r="U458" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="459" spans="1:21" x14ac:dyDescent="0.35">
@@ -30588,7 +30585,7 @@
         <v>0.59861111111111109</v>
       </c>
       <c r="F459" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G459" s="4">
         <v>329</v>
@@ -30627,13 +30624,13 @@
         <v>0</v>
       </c>
       <c r="S459" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="T459" t="s">
         <v>127</v>
       </c>
       <c r="U459" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="460" spans="1:21" x14ac:dyDescent="0.35">
@@ -30653,7 +30650,7 @@
         <v>0.59861111111111109</v>
       </c>
       <c r="F460" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G460" s="4">
         <v>329</v>
@@ -30692,13 +30689,13 @@
         <v>0</v>
       </c>
       <c r="S460" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="T460" t="s">
         <v>127</v>
       </c>
       <c r="U460" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="461" spans="1:21" x14ac:dyDescent="0.35">
@@ -30718,7 +30715,7 @@
         <v>0.59861111111111109</v>
       </c>
       <c r="F461" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G461" s="4">
         <v>330</v>
@@ -30757,13 +30754,13 @@
         <v>0</v>
       </c>
       <c r="S461" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="T461" t="s">
         <v>127</v>
       </c>
       <c r="U461" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="462" spans="1:21" x14ac:dyDescent="0.35">
@@ -30783,7 +30780,7 @@
         <v>0.59861111111111109</v>
       </c>
       <c r="F462" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G462" s="4">
         <v>330</v>
@@ -30822,13 +30819,13 @@
         <v>0</v>
       </c>
       <c r="S462" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="T462" t="s">
         <v>127</v>
       </c>
       <c r="U462" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="463" spans="1:21" x14ac:dyDescent="0.35">
@@ -30848,7 +30845,7 @@
         <v>0.59861111111111109</v>
       </c>
       <c r="F463" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G463" s="4">
         <v>331</v>
@@ -30887,13 +30884,13 @@
         <v>0</v>
       </c>
       <c r="S463" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="T463" t="s">
         <v>127</v>
       </c>
       <c r="U463" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="464" spans="1:21" x14ac:dyDescent="0.35">
@@ -30913,7 +30910,7 @@
         <v>0.59861111111111109</v>
       </c>
       <c r="F464" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G464" s="4">
         <v>331</v>
@@ -30952,13 +30949,13 @@
         <v>0</v>
       </c>
       <c r="S464" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="T464" t="s">
         <v>127</v>
       </c>
       <c r="U464" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="465" spans="1:21" x14ac:dyDescent="0.35">
@@ -30978,7 +30975,7 @@
         <v>0.59861111111111109</v>
       </c>
       <c r="F465" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G465" s="4">
         <v>332</v>
@@ -31017,13 +31014,13 @@
         <v>0</v>
       </c>
       <c r="S465" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="T465" t="s">
         <v>127</v>
       </c>
       <c r="U465" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="466" spans="1:21" x14ac:dyDescent="0.35">
@@ -31043,7 +31040,7 @@
         <v>0.59861111111111109</v>
       </c>
       <c r="F466" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G466" s="4">
         <v>333</v>
@@ -31082,13 +31079,13 @@
         <v>0</v>
       </c>
       <c r="S466" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="T466" t="s">
         <v>127</v>
       </c>
       <c r="U466" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="467" spans="1:21" x14ac:dyDescent="0.35">
@@ -31108,7 +31105,7 @@
         <v>0.59861111111111109</v>
       </c>
       <c r="F467" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G467" s="4">
         <v>333</v>
@@ -31147,13 +31144,13 @@
         <v>0</v>
       </c>
       <c r="S467" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="T467" t="s">
         <v>127</v>
       </c>
       <c r="U467" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="468" spans="1:21" x14ac:dyDescent="0.35">
@@ -31173,7 +31170,7 @@
         <v>0.59861111111111109</v>
       </c>
       <c r="F468" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G468" s="4">
         <v>333</v>
@@ -31212,13 +31209,13 @@
         <v>0</v>
       </c>
       <c r="S468" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="T468" t="s">
         <v>127</v>
       </c>
       <c r="U468" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="469" spans="1:21" x14ac:dyDescent="0.35">
@@ -31238,7 +31235,7 @@
         <v>0.59861111111111109</v>
       </c>
       <c r="F469" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G469" s="4">
         <v>333</v>
@@ -31277,13 +31274,13 @@
         <v>0</v>
       </c>
       <c r="S469" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="T469" t="s">
         <v>127</v>
       </c>
       <c r="U469" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="470" spans="1:21" x14ac:dyDescent="0.35">
@@ -31303,7 +31300,7 @@
         <v>0.59861111111111109</v>
       </c>
       <c r="F470" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G470" s="4">
         <v>334</v>
@@ -31342,13 +31339,13 @@
         <v>0</v>
       </c>
       <c r="S470" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="T470" t="s">
         <v>127</v>
       </c>
       <c r="U470" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="471" spans="1:21" x14ac:dyDescent="0.35">
@@ -31368,7 +31365,7 @@
         <v>0.59861111111111109</v>
       </c>
       <c r="F471" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G471" s="4">
         <v>335</v>
@@ -31407,13 +31404,13 @@
         <v>0</v>
       </c>
       <c r="S471" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="T471" t="s">
         <v>127</v>
       </c>
       <c r="U471" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="472" spans="1:21" x14ac:dyDescent="0.35">
@@ -31433,7 +31430,7 @@
         <v>0.59861111111111109</v>
       </c>
       <c r="F472" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G472" s="4">
         <v>336</v>
@@ -31472,13 +31469,13 @@
         <v>0</v>
       </c>
       <c r="S472" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="T472" t="s">
         <v>127</v>
       </c>
       <c r="U472" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="473" spans="1:21" x14ac:dyDescent="0.35">
@@ -31498,7 +31495,7 @@
         <v>0.59861111111111109</v>
       </c>
       <c r="F473" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G473" s="4">
         <v>337</v>
@@ -31537,13 +31534,13 @@
         <v>0</v>
       </c>
       <c r="S473" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="T473" t="s">
         <v>127</v>
       </c>
       <c r="U473" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="474" spans="1:21" x14ac:dyDescent="0.35">
@@ -31563,7 +31560,7 @@
         <v>0.59861111111111109</v>
       </c>
       <c r="F474" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G474" s="4">
         <v>338</v>
@@ -31602,13 +31599,13 @@
         <v>0</v>
       </c>
       <c r="S474" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="T474" t="s">
         <v>127</v>
       </c>
       <c r="U474" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="475" spans="1:21" x14ac:dyDescent="0.35">
@@ -31628,7 +31625,7 @@
         <v>0.59861111111111109</v>
       </c>
       <c r="F475" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G475" s="4">
         <v>338</v>
@@ -31667,13 +31664,13 @@
         <v>0</v>
       </c>
       <c r="S475" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="T475" t="s">
         <v>127</v>
       </c>
       <c r="U475" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="476" spans="1:21" x14ac:dyDescent="0.35">
@@ -31693,7 +31690,7 @@
         <v>0.47847222222222219</v>
       </c>
       <c r="F476" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G476" s="4">
         <v>340</v>
@@ -31732,13 +31729,13 @@
         <v>0</v>
       </c>
       <c r="S476" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="T476" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="U476" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="477" spans="1:21" x14ac:dyDescent="0.35">
@@ -31758,7 +31755,7 @@
         <v>0.47847222222222219</v>
       </c>
       <c r="F477" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G477" s="4">
         <v>341</v>
@@ -31797,13 +31794,13 @@
         <v>0</v>
       </c>
       <c r="S477" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="T477" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="U477" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="478" spans="1:21" x14ac:dyDescent="0.35">
@@ -31823,7 +31820,7 @@
         <v>0.47847222222222219</v>
       </c>
       <c r="F478" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G478" s="4">
         <v>342</v>
@@ -31862,13 +31859,13 @@
         <v>0</v>
       </c>
       <c r="S478" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="T478" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="U478" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="479" spans="1:21" x14ac:dyDescent="0.35">
@@ -31888,7 +31885,7 @@
         <v>0.47847222222222219</v>
       </c>
       <c r="F479" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G479" s="4">
         <v>342</v>
@@ -31927,13 +31924,13 @@
         <v>0</v>
       </c>
       <c r="S479" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="T479" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="U479" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="480" spans="1:21" x14ac:dyDescent="0.35">
@@ -31953,7 +31950,7 @@
         <v>0.47847222222222219</v>
       </c>
       <c r="F480" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G480" s="4">
         <v>343</v>
@@ -31992,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="S480" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="T480" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="U480" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="481" spans="1:21" x14ac:dyDescent="0.35">
@@ -32018,7 +32015,7 @@
         <v>0.47847222222222219</v>
       </c>
       <c r="F481" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G481" s="4">
         <v>343</v>
@@ -32057,13 +32054,13 @@
         <v>0</v>
       </c>
       <c r="S481" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="T481" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="U481" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="482" spans="1:21" x14ac:dyDescent="0.35">
@@ -32083,7 +32080,7 @@
         <v>0.47847222222222219</v>
       </c>
       <c r="F482" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G482" s="4">
         <v>343</v>
@@ -32122,13 +32119,13 @@
         <v>0</v>
       </c>
       <c r="S482" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="T482" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="U482" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="483" spans="1:21" x14ac:dyDescent="0.35">
@@ -32148,7 +32145,7 @@
         <v>0.47847222222222219</v>
       </c>
       <c r="F483" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G483" s="4">
         <v>343</v>
@@ -32187,13 +32184,13 @@
         <v>0</v>
       </c>
       <c r="S483" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="T483" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="U483" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="484" spans="1:21" x14ac:dyDescent="0.35">
@@ -32213,7 +32210,7 @@
         <v>0.47847222222222219</v>
       </c>
       <c r="F484" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G484" s="4">
         <v>344</v>
@@ -32252,13 +32249,13 @@
         <v>0.1</v>
       </c>
       <c r="S484" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="T484" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="U484" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="485" spans="1:21" x14ac:dyDescent="0.35">
@@ -32278,7 +32275,7 @@
         <v>0.47847222222222219</v>
       </c>
       <c r="F485" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G485" s="4">
         <v>345</v>
@@ -32317,13 +32314,13 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="S485" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="T485" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="U485" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="486" spans="1:21" x14ac:dyDescent="0.35">
@@ -32343,7 +32340,7 @@
         <v>0.47847222222222219</v>
       </c>
       <c r="F486" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G486" s="4">
         <v>345</v>
@@ -32382,13 +32379,13 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="S486" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="T486" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="U486" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="487" spans="1:21" x14ac:dyDescent="0.35">
@@ -32408,7 +32405,7 @@
         <v>0.47847222222222219</v>
       </c>
       <c r="F487" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G487" s="4">
         <v>346</v>
@@ -32447,13 +32444,13 @@
         <v>0</v>
       </c>
       <c r="S487" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="T487" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="U487" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="488" spans="1:21" x14ac:dyDescent="0.35">
@@ -32473,7 +32470,7 @@
         <v>0.47847222222222219</v>
       </c>
       <c r="F488" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G488" s="4">
         <v>346</v>
@@ -32512,13 +32509,13 @@
         <v>0</v>
       </c>
       <c r="S488" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="T488" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="U488" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="489" spans="1:21" x14ac:dyDescent="0.35">
@@ -32538,7 +32535,7 @@
         <v>0.47847222222222219</v>
       </c>
       <c r="F489" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G489" s="4">
         <v>347</v>
@@ -32577,13 +32574,13 @@
         <v>0</v>
       </c>
       <c r="S489" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="T489" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="U489" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="490" spans="1:21" x14ac:dyDescent="0.35">
@@ -32603,7 +32600,7 @@
         <v>0.47847222222222219</v>
       </c>
       <c r="F490" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G490" s="4">
         <v>349</v>
@@ -32642,13 +32639,13 @@
         <v>0</v>
       </c>
       <c r="S490" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="T490" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="U490" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="491" spans="1:21" x14ac:dyDescent="0.35">
@@ -32668,7 +32665,7 @@
         <v>0.47847222222222219</v>
       </c>
       <c r="F491" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G491" s="4">
         <v>350</v>
@@ -32707,13 +32704,13 @@
         <v>0</v>
       </c>
       <c r="S491" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="T491" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="U491" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="492" spans="1:21" x14ac:dyDescent="0.35">
@@ -32733,7 +32730,7 @@
         <v>0.47847222222222219</v>
       </c>
       <c r="F492" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G492" s="4">
         <v>351</v>
@@ -32772,13 +32769,13 @@
         <v>0</v>
       </c>
       <c r="S492" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="T492" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="U492" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="493" spans="1:21" x14ac:dyDescent="0.35">
@@ -32798,7 +32795,7 @@
         <v>0.47847222222222219</v>
       </c>
       <c r="F493" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G493" s="4">
         <v>352</v>
@@ -32837,13 +32834,13 @@
         <v>0</v>
       </c>
       <c r="S493" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="T493" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="U493" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="494" spans="1:21" x14ac:dyDescent="0.35">
@@ -32863,7 +32860,7 @@
         <v>0.47847222222222219</v>
       </c>
       <c r="F494" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G494" s="4">
         <v>352</v>
@@ -32902,13 +32899,13 @@
         <v>0</v>
       </c>
       <c r="S494" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="T494" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="U494" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="495" spans="1:21" x14ac:dyDescent="0.35">
@@ -32928,7 +32925,7 @@
         <v>0.47847222222222219</v>
       </c>
       <c r="F495" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G495" s="4">
         <v>353</v>
@@ -32967,13 +32964,13 @@
         <v>0</v>
       </c>
       <c r="S495" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="T495" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="U495" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="496" spans="1:21" x14ac:dyDescent="0.35">
@@ -32993,7 +32990,7 @@
         <v>0.47847222222222219</v>
       </c>
       <c r="F496" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G496" s="4">
         <v>354</v>
@@ -33032,13 +33029,13 @@
         <v>0</v>
       </c>
       <c r="S496" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="T496" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="U496" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="497" spans="1:21" x14ac:dyDescent="0.35">
@@ -33058,7 +33055,7 @@
         <v>0.47847222222222219</v>
       </c>
       <c r="F497" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G497" s="4">
         <v>355</v>
@@ -33097,13 +33094,13 @@
         <v>0</v>
       </c>
       <c r="S497" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="T497" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="U497" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="498" spans="1:21" x14ac:dyDescent="0.35">
@@ -33123,7 +33120,7 @@
         <v>0.47847222222222219</v>
       </c>
       <c r="F498" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G498" s="4">
         <v>356</v>
@@ -33162,13 +33159,13 @@
         <v>0</v>
       </c>
       <c r="S498" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="T498" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="U498" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="499" spans="1:21" x14ac:dyDescent="0.35">
@@ -33188,7 +33185,7 @@
         <v>0.47847222222222219</v>
       </c>
       <c r="F499" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G499" s="4">
         <v>356</v>
@@ -33227,13 +33224,13 @@
         <v>0</v>
       </c>
       <c r="S499" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="T499" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="U499" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="500" spans="1:21" x14ac:dyDescent="0.35">
@@ -33253,7 +33250,7 @@
         <v>0.47847222222222219</v>
       </c>
       <c r="F500" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G500" s="4">
         <v>356</v>
@@ -33292,13 +33289,13 @@
         <v>0</v>
       </c>
       <c r="S500" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="T500" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="U500" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="501" spans="1:21" x14ac:dyDescent="0.35">
@@ -33318,7 +33315,7 @@
         <v>0.47847222222222219</v>
       </c>
       <c r="F501" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G501" s="4">
         <v>356</v>
@@ -33336,7 +33333,7 @@
         <v>5</v>
       </c>
       <c r="L501" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="M501">
         <v>0.9</v>
@@ -33357,13 +33354,13 @@
         <v>0</v>
       </c>
       <c r="S501" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="T501" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="U501" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="502" spans="1:21" x14ac:dyDescent="0.35">
@@ -33383,7 +33380,7 @@
         <v>0.47847222222222219</v>
       </c>
       <c r="F502" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G502" s="4">
         <v>357</v>
@@ -33401,7 +33398,7 @@
         <v>80</v>
       </c>
       <c r="L502" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="M502">
         <v>1</v>
@@ -33422,13 +33419,13 @@
         <v>0</v>
       </c>
       <c r="S502" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="T502" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="U502" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="503" spans="1:21" x14ac:dyDescent="0.35">
@@ -33448,7 +33445,7 @@
         <v>0.47847222222222219</v>
       </c>
       <c r="F503" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G503" s="4">
         <v>357</v>
@@ -33466,7 +33463,7 @@
         <v>80</v>
       </c>
       <c r="L503" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="M503">
         <v>1</v>
@@ -33487,13 +33484,13 @@
         <v>0</v>
       </c>
       <c r="S503" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="T503" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="U503" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="504" spans="1:21" x14ac:dyDescent="0.35">
@@ -33513,7 +33510,7 @@
         <v>0.57847222222222217</v>
       </c>
       <c r="F504" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G504" s="4">
         <v>358</v>
@@ -33552,13 +33549,13 @@
         <v>0</v>
       </c>
       <c r="S504" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="T504" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="U504" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="505" spans="1:21" x14ac:dyDescent="0.35">
@@ -33578,7 +33575,7 @@
         <v>0.57847222222222217</v>
       </c>
       <c r="F505" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G505" s="4">
         <v>359</v>
@@ -33617,13 +33614,13 @@
         <v>0</v>
       </c>
       <c r="S505" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="T505" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="U505" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -33648,7 +33645,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>17</v>
@@ -33659,7 +33656,7 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -33667,39 +33664,39 @@
         <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -33707,7 +33704,7 @@
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -33715,39 +33712,39 @@
         <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -33755,7 +33752,7 @@
         <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -33763,7 +33760,7 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -33771,7 +33768,7 @@
         <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -33779,87 +33776,87 @@
         <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B23" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B26" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B27" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -33867,23 +33864,23 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B30" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
@@ -33891,7 +33888,7 @@
         <v>139</v>
       </c>
       <c r="B31" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -33899,7 +33896,7 @@
         <v>131</v>
       </c>
       <c r="B32" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
